--- a/data/2022 Field Data - Revisiting Amesbury et al. (1999).xlsx
+++ b/data/2022 Field Data - Revisiting Amesbury et al. (1999).xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25425"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B5AB6F1-ADC2-4267-868B-B4403E9988A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC08406E-2951-4538-8BCF-7094D959B8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2279" uniqueCount="94">
   <si>
     <t>date</t>
   </si>
@@ -122,6 +122,18 @@
     <t>ACRO</t>
   </si>
   <si>
+    <t>CYPH</t>
+  </si>
+  <si>
+    <t>PGRA</t>
+  </si>
+  <si>
+    <t>LPHR</t>
+  </si>
+  <si>
+    <t>FABD</t>
+  </si>
+  <si>
     <t>code</t>
   </si>
   <si>
@@ -182,6 +194,9 @@
     <t>damicornis</t>
   </si>
   <si>
+    <t>grandis</t>
+  </si>
+  <si>
     <t>verrucosa</t>
   </si>
   <si>
@@ -201,6 +216,21 @@
   </si>
   <si>
     <t>contigua</t>
+  </si>
+  <si>
+    <t>Leptoria</t>
+  </si>
+  <si>
+    <t>phrygia</t>
+  </si>
+  <si>
+    <t>Cyphastrea</t>
+  </si>
+  <si>
+    <t>Favites</t>
+  </si>
+  <si>
+    <t>abdita</t>
   </si>
   <si>
     <t>lat</t>
@@ -243,6 +273,9 @@
   </si>
   <si>
     <t>outer_flat</t>
+  </si>
+  <si>
+    <t>sand_pavement</t>
   </si>
   <si>
     <t>Marisa Agarwal, Xavier Quinata</t>
@@ -655,11 +688,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I921"/>
+  <dimension ref="A1:I1041"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A846" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A843" sqref="A843:A921"/>
+      <pane ySplit="1" topLeftCell="A1037" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A923" sqref="A923:A1041"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25326,6 +25359,3330 @@
         <v>1</v>
       </c>
     </row>
+    <row r="922" spans="1:9">
+      <c r="A922" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B922" t="s">
+        <v>13</v>
+      </c>
+      <c r="C922">
+        <v>53</v>
+      </c>
+      <c r="D922">
+        <v>3</v>
+      </c>
+      <c r="E922">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="923" spans="1:9">
+      <c r="A923" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B923" t="s">
+        <v>13</v>
+      </c>
+      <c r="C923">
+        <v>53</v>
+      </c>
+      <c r="D923">
+        <v>3</v>
+      </c>
+      <c r="E923">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="924" spans="1:9">
+      <c r="A924" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B924" t="s">
+        <v>13</v>
+      </c>
+      <c r="C924">
+        <v>53</v>
+      </c>
+      <c r="D924">
+        <v>3</v>
+      </c>
+      <c r="E924">
+        <v>3</v>
+      </c>
+      <c r="F924" t="s">
+        <v>12</v>
+      </c>
+      <c r="G924">
+        <v>51</v>
+      </c>
+      <c r="H924">
+        <v>4</v>
+      </c>
+      <c r="I924">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="925" spans="1:9">
+      <c r="A925" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B925" t="s">
+        <v>13</v>
+      </c>
+      <c r="C925">
+        <v>53</v>
+      </c>
+      <c r="D925">
+        <v>3</v>
+      </c>
+      <c r="E925">
+        <v>4</v>
+      </c>
+      <c r="F925" t="s">
+        <v>10</v>
+      </c>
+      <c r="G925">
+        <v>21</v>
+      </c>
+      <c r="H925">
+        <v>4.5</v>
+      </c>
+      <c r="I925">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="926" spans="1:9">
+      <c r="A926" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B926" t="s">
+        <v>13</v>
+      </c>
+      <c r="C926">
+        <v>53</v>
+      </c>
+      <c r="D926">
+        <v>5</v>
+      </c>
+      <c r="E926">
+        <v>1</v>
+      </c>
+      <c r="F926" t="s">
+        <v>26</v>
+      </c>
+      <c r="G926">
+        <v>61</v>
+      </c>
+      <c r="H926">
+        <v>3</v>
+      </c>
+      <c r="I926">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="927" spans="1:9">
+      <c r="A927" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B927" t="s">
+        <v>13</v>
+      </c>
+      <c r="C927">
+        <v>53</v>
+      </c>
+      <c r="D927">
+        <v>5</v>
+      </c>
+      <c r="E927">
+        <v>2</v>
+      </c>
+      <c r="F927" t="s">
+        <v>12</v>
+      </c>
+      <c r="G927">
+        <v>163</v>
+      </c>
+      <c r="H927">
+        <v>6</v>
+      </c>
+      <c r="I927">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="928" spans="1:9">
+      <c r="A928" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B928" t="s">
+        <v>13</v>
+      </c>
+      <c r="C928">
+        <v>53</v>
+      </c>
+      <c r="D928">
+        <v>5</v>
+      </c>
+      <c r="E928">
+        <v>3</v>
+      </c>
+      <c r="F928" t="s">
+        <v>15</v>
+      </c>
+      <c r="G928">
+        <v>85</v>
+      </c>
+      <c r="H928">
+        <v>4.5</v>
+      </c>
+      <c r="I928">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="929" spans="1:9">
+      <c r="A929" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B929" t="s">
+        <v>13</v>
+      </c>
+      <c r="C929">
+        <v>53</v>
+      </c>
+      <c r="D929">
+        <v>5</v>
+      </c>
+      <c r="E929">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="930" spans="1:9">
+      <c r="A930" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B930" t="s">
+        <v>13</v>
+      </c>
+      <c r="C930">
+        <v>53</v>
+      </c>
+      <c r="D930">
+        <v>11</v>
+      </c>
+      <c r="E930">
+        <v>1</v>
+      </c>
+      <c r="F930" t="s">
+        <v>10</v>
+      </c>
+      <c r="G930">
+        <v>22</v>
+      </c>
+      <c r="H930">
+        <v>3.5</v>
+      </c>
+      <c r="I930">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="931" spans="1:9">
+      <c r="A931" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B931" t="s">
+        <v>13</v>
+      </c>
+      <c r="C931">
+        <v>53</v>
+      </c>
+      <c r="D931">
+        <v>11</v>
+      </c>
+      <c r="E931">
+        <v>2</v>
+      </c>
+      <c r="F931" t="s">
+        <v>10</v>
+      </c>
+      <c r="G931">
+        <v>81</v>
+      </c>
+      <c r="H931">
+        <v>2</v>
+      </c>
+      <c r="I931">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="932" spans="1:9">
+      <c r="A932" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B932" t="s">
+        <v>13</v>
+      </c>
+      <c r="C932">
+        <v>53</v>
+      </c>
+      <c r="D932">
+        <v>11</v>
+      </c>
+      <c r="E932">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="933" spans="1:9">
+      <c r="A933" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B933" t="s">
+        <v>13</v>
+      </c>
+      <c r="C933">
+        <v>53</v>
+      </c>
+      <c r="D933">
+        <v>11</v>
+      </c>
+      <c r="E933">
+        <v>4</v>
+      </c>
+      <c r="F933" t="s">
+        <v>12</v>
+      </c>
+      <c r="G933">
+        <v>96</v>
+      </c>
+      <c r="H933">
+        <v>5.5</v>
+      </c>
+      <c r="I933">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="934" spans="1:9">
+      <c r="A934" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B934" t="s">
+        <v>13</v>
+      </c>
+      <c r="C934">
+        <v>53</v>
+      </c>
+      <c r="D934">
+        <v>12</v>
+      </c>
+      <c r="E934">
+        <v>1</v>
+      </c>
+      <c r="F934" t="s">
+        <v>30</v>
+      </c>
+      <c r="G934">
+        <v>37</v>
+      </c>
+      <c r="H934">
+        <v>4</v>
+      </c>
+      <c r="I934">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="935" spans="1:9">
+      <c r="A935" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B935" t="s">
+        <v>13</v>
+      </c>
+      <c r="C935">
+        <v>53</v>
+      </c>
+      <c r="D935">
+        <v>12</v>
+      </c>
+      <c r="E935">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="936" spans="1:9">
+      <c r="A936" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B936" t="s">
+        <v>13</v>
+      </c>
+      <c r="C936">
+        <v>53</v>
+      </c>
+      <c r="D936">
+        <v>12</v>
+      </c>
+      <c r="E936">
+        <v>3</v>
+      </c>
+      <c r="F936" t="s">
+        <v>10</v>
+      </c>
+      <c r="G936">
+        <v>41</v>
+      </c>
+      <c r="H936">
+        <v>7</v>
+      </c>
+      <c r="I936">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="937" spans="1:9">
+      <c r="A937" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B937" t="s">
+        <v>13</v>
+      </c>
+      <c r="C937">
+        <v>53</v>
+      </c>
+      <c r="D937">
+        <v>12</v>
+      </c>
+      <c r="E937">
+        <v>4</v>
+      </c>
+      <c r="F937" t="s">
+        <v>12</v>
+      </c>
+      <c r="G937">
+        <v>85</v>
+      </c>
+      <c r="H937">
+        <v>5</v>
+      </c>
+      <c r="I937">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="938" spans="1:9">
+      <c r="A938" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B938" t="s">
+        <v>13</v>
+      </c>
+      <c r="C938">
+        <v>53</v>
+      </c>
+      <c r="D938">
+        <v>18</v>
+      </c>
+      <c r="E938">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="939" spans="1:9">
+      <c r="A939" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B939" t="s">
+        <v>13</v>
+      </c>
+      <c r="C939">
+        <v>53</v>
+      </c>
+      <c r="D939">
+        <v>18</v>
+      </c>
+      <c r="E939">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="940" spans="1:9">
+      <c r="A940" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B940" t="s">
+        <v>13</v>
+      </c>
+      <c r="C940">
+        <v>53</v>
+      </c>
+      <c r="D940">
+        <v>18</v>
+      </c>
+      <c r="E940">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="941" spans="1:9">
+      <c r="A941" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B941" t="s">
+        <v>13</v>
+      </c>
+      <c r="C941">
+        <v>53</v>
+      </c>
+      <c r="D941">
+        <v>18</v>
+      </c>
+      <c r="E941">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="942" spans="1:9">
+      <c r="A942" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B942" t="s">
+        <v>13</v>
+      </c>
+      <c r="C942">
+        <v>53</v>
+      </c>
+      <c r="D942">
+        <v>23</v>
+      </c>
+      <c r="E942">
+        <v>1</v>
+      </c>
+      <c r="F942" t="s">
+        <v>10</v>
+      </c>
+      <c r="G942">
+        <v>75</v>
+      </c>
+      <c r="H942">
+        <v>3</v>
+      </c>
+      <c r="I942">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="943" spans="1:9">
+      <c r="A943" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B943" t="s">
+        <v>13</v>
+      </c>
+      <c r="C943">
+        <v>53</v>
+      </c>
+      <c r="D943">
+        <v>23</v>
+      </c>
+      <c r="E943">
+        <v>2</v>
+      </c>
+      <c r="F943" t="s">
+        <v>10</v>
+      </c>
+      <c r="G943">
+        <v>40</v>
+      </c>
+      <c r="H943">
+        <v>2.5</v>
+      </c>
+      <c r="I943">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="944" spans="1:9">
+      <c r="A944" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B944" t="s">
+        <v>13</v>
+      </c>
+      <c r="C944">
+        <v>53</v>
+      </c>
+      <c r="D944">
+        <v>23</v>
+      </c>
+      <c r="E944">
+        <v>3</v>
+      </c>
+      <c r="F944" t="s">
+        <v>10</v>
+      </c>
+      <c r="G944">
+        <v>45</v>
+      </c>
+      <c r="H944">
+        <v>5</v>
+      </c>
+      <c r="I944">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="945" spans="1:9">
+      <c r="A945" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B945" t="s">
+        <v>13</v>
+      </c>
+      <c r="C945">
+        <v>53</v>
+      </c>
+      <c r="D945">
+        <v>23</v>
+      </c>
+      <c r="E945">
+        <v>4</v>
+      </c>
+      <c r="F945" t="s">
+        <v>12</v>
+      </c>
+      <c r="G945">
+        <v>60</v>
+      </c>
+      <c r="H945">
+        <v>1.5</v>
+      </c>
+      <c r="I945">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="946" spans="1:9">
+      <c r="A946" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B946" t="s">
+        <v>13</v>
+      </c>
+      <c r="C946">
+        <v>53</v>
+      </c>
+      <c r="D946">
+        <v>25</v>
+      </c>
+      <c r="E946">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="947" spans="1:9">
+      <c r="A947" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B947" t="s">
+        <v>13</v>
+      </c>
+      <c r="C947">
+        <v>53</v>
+      </c>
+      <c r="D947">
+        <v>25</v>
+      </c>
+      <c r="E947">
+        <v>2</v>
+      </c>
+      <c r="F947" t="s">
+        <v>12</v>
+      </c>
+      <c r="G947">
+        <v>77</v>
+      </c>
+      <c r="H947">
+        <v>7.5</v>
+      </c>
+      <c r="I947">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="948" spans="1:9">
+      <c r="A948" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B948" t="s">
+        <v>13</v>
+      </c>
+      <c r="C948">
+        <v>53</v>
+      </c>
+      <c r="D948">
+        <v>25</v>
+      </c>
+      <c r="E948">
+        <v>3</v>
+      </c>
+      <c r="F948" t="s">
+        <v>10</v>
+      </c>
+      <c r="G948">
+        <v>66</v>
+      </c>
+      <c r="H948">
+        <v>4.5</v>
+      </c>
+      <c r="I948">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="949" spans="1:9">
+      <c r="A949" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B949" t="s">
+        <v>13</v>
+      </c>
+      <c r="C949">
+        <v>53</v>
+      </c>
+      <c r="D949">
+        <v>25</v>
+      </c>
+      <c r="E949">
+        <v>4</v>
+      </c>
+      <c r="F949" t="s">
+        <v>10</v>
+      </c>
+      <c r="G949">
+        <v>42</v>
+      </c>
+      <c r="H949">
+        <v>4</v>
+      </c>
+      <c r="I949">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="950" spans="1:9">
+      <c r="A950" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B950" t="s">
+        <v>13</v>
+      </c>
+      <c r="C950">
+        <v>53</v>
+      </c>
+      <c r="D950">
+        <v>27</v>
+      </c>
+      <c r="E950">
+        <v>1</v>
+      </c>
+      <c r="F950" t="s">
+        <v>12</v>
+      </c>
+      <c r="G950">
+        <v>28</v>
+      </c>
+      <c r="H950">
+        <v>2</v>
+      </c>
+      <c r="I950">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="951" spans="1:9">
+      <c r="A951" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B951" t="s">
+        <v>13</v>
+      </c>
+      <c r="C951">
+        <v>53</v>
+      </c>
+      <c r="D951">
+        <v>27</v>
+      </c>
+      <c r="E951">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="952" spans="1:9">
+      <c r="A952" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B952" t="s">
+        <v>13</v>
+      </c>
+      <c r="C952">
+        <v>53</v>
+      </c>
+      <c r="D952">
+        <v>27</v>
+      </c>
+      <c r="E952">
+        <v>3</v>
+      </c>
+      <c r="F952" t="s">
+        <v>12</v>
+      </c>
+      <c r="G952">
+        <v>58</v>
+      </c>
+      <c r="H952">
+        <v>4</v>
+      </c>
+      <c r="I952">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="953" spans="1:9">
+      <c r="A953" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B953" t="s">
+        <v>13</v>
+      </c>
+      <c r="C953">
+        <v>53</v>
+      </c>
+      <c r="D953">
+        <v>27</v>
+      </c>
+      <c r="E953">
+        <v>4</v>
+      </c>
+      <c r="F953" t="s">
+        <v>10</v>
+      </c>
+      <c r="G953">
+        <v>106</v>
+      </c>
+      <c r="H953">
+        <v>2.5</v>
+      </c>
+      <c r="I953">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="954" spans="1:9">
+      <c r="A954" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B954" t="s">
+        <v>13</v>
+      </c>
+      <c r="C954">
+        <v>53</v>
+      </c>
+      <c r="D954">
+        <v>28</v>
+      </c>
+      <c r="E954">
+        <v>1</v>
+      </c>
+      <c r="F954" t="s">
+        <v>15</v>
+      </c>
+      <c r="G954">
+        <v>40</v>
+      </c>
+      <c r="H954">
+        <v>4</v>
+      </c>
+      <c r="I954">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="955" spans="1:9">
+      <c r="A955" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B955" t="s">
+        <v>13</v>
+      </c>
+      <c r="C955">
+        <v>53</v>
+      </c>
+      <c r="D955">
+        <v>28</v>
+      </c>
+      <c r="E955">
+        <v>2</v>
+      </c>
+      <c r="F955" t="s">
+        <v>10</v>
+      </c>
+      <c r="G955">
+        <v>29</v>
+      </c>
+      <c r="H955">
+        <v>3</v>
+      </c>
+      <c r="I955">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="956" spans="1:9">
+      <c r="A956" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B956" t="s">
+        <v>13</v>
+      </c>
+      <c r="C956">
+        <v>53</v>
+      </c>
+      <c r="D956">
+        <v>28</v>
+      </c>
+      <c r="E956">
+        <v>3</v>
+      </c>
+      <c r="F956" t="s">
+        <v>12</v>
+      </c>
+      <c r="G956">
+        <v>110</v>
+      </c>
+      <c r="H956">
+        <v>3.5</v>
+      </c>
+      <c r="I956">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="957" spans="1:9">
+      <c r="A957" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B957" t="s">
+        <v>13</v>
+      </c>
+      <c r="C957">
+        <v>53</v>
+      </c>
+      <c r="D957">
+        <v>28</v>
+      </c>
+      <c r="E957">
+        <v>4</v>
+      </c>
+      <c r="F957" t="s">
+        <v>12</v>
+      </c>
+      <c r="G957">
+        <v>93</v>
+      </c>
+      <c r="H957">
+        <v>6</v>
+      </c>
+      <c r="I957">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="958" spans="1:9">
+      <c r="A958" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B958" t="s">
+        <v>13</v>
+      </c>
+      <c r="C958">
+        <v>53</v>
+      </c>
+      <c r="D958">
+        <v>33</v>
+      </c>
+      <c r="E958">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="959" spans="1:9">
+      <c r="A959" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B959" t="s">
+        <v>13</v>
+      </c>
+      <c r="C959">
+        <v>53</v>
+      </c>
+      <c r="D959">
+        <v>33</v>
+      </c>
+      <c r="E959">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="960" spans="1:9">
+      <c r="A960" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B960" t="s">
+        <v>13</v>
+      </c>
+      <c r="C960">
+        <v>53</v>
+      </c>
+      <c r="D960">
+        <v>33</v>
+      </c>
+      <c r="E960">
+        <v>3</v>
+      </c>
+      <c r="F960" t="s">
+        <v>10</v>
+      </c>
+      <c r="G960">
+        <v>59</v>
+      </c>
+      <c r="H960">
+        <v>2</v>
+      </c>
+      <c r="I960">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="961" spans="1:9">
+      <c r="A961" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B961" t="s">
+        <v>13</v>
+      </c>
+      <c r="C961">
+        <v>53</v>
+      </c>
+      <c r="D961">
+        <v>33</v>
+      </c>
+      <c r="E961">
+        <v>4</v>
+      </c>
+      <c r="F961" t="s">
+        <v>10</v>
+      </c>
+      <c r="G961">
+        <v>100</v>
+      </c>
+      <c r="H961">
+        <v>5.5</v>
+      </c>
+      <c r="I961">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="962" spans="1:9">
+      <c r="A962" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B962" t="s">
+        <v>13</v>
+      </c>
+      <c r="C962">
+        <v>31</v>
+      </c>
+      <c r="D962">
+        <v>4</v>
+      </c>
+      <c r="E962">
+        <v>1</v>
+      </c>
+      <c r="F962" t="s">
+        <v>25</v>
+      </c>
+      <c r="G962">
+        <v>56</v>
+      </c>
+      <c r="H962">
+        <v>5</v>
+      </c>
+      <c r="I962">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="963" spans="1:9">
+      <c r="A963" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B963" t="s">
+        <v>13</v>
+      </c>
+      <c r="C963">
+        <v>31</v>
+      </c>
+      <c r="D963">
+        <v>4</v>
+      </c>
+      <c r="E963">
+        <v>2</v>
+      </c>
+      <c r="F963" t="s">
+        <v>12</v>
+      </c>
+      <c r="G963">
+        <v>26</v>
+      </c>
+      <c r="H963">
+        <v>1</v>
+      </c>
+      <c r="I963">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="964" spans="1:9">
+      <c r="A964" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B964" t="s">
+        <v>13</v>
+      </c>
+      <c r="C964">
+        <v>31</v>
+      </c>
+      <c r="D964">
+        <v>4</v>
+      </c>
+      <c r="E964">
+        <v>3</v>
+      </c>
+      <c r="F964" t="s">
+        <v>12</v>
+      </c>
+      <c r="G964">
+        <v>21</v>
+      </c>
+      <c r="H964">
+        <v>6</v>
+      </c>
+      <c r="I964">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="965" spans="1:9">
+      <c r="A965" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B965" t="s">
+        <v>13</v>
+      </c>
+      <c r="C965">
+        <v>31</v>
+      </c>
+      <c r="D965">
+        <v>4</v>
+      </c>
+      <c r="E965">
+        <v>4</v>
+      </c>
+      <c r="F965" t="s">
+        <v>12</v>
+      </c>
+      <c r="G965">
+        <v>22</v>
+      </c>
+      <c r="H965">
+        <v>5</v>
+      </c>
+      <c r="I965">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="966" spans="1:9">
+      <c r="A966" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B966" t="s">
+        <v>13</v>
+      </c>
+      <c r="C966">
+        <v>31</v>
+      </c>
+      <c r="D966">
+        <v>16</v>
+      </c>
+      <c r="E966">
+        <v>1</v>
+      </c>
+      <c r="F966" t="s">
+        <v>10</v>
+      </c>
+      <c r="G966">
+        <v>10</v>
+      </c>
+      <c r="H966">
+        <v>2</v>
+      </c>
+      <c r="I966">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="967" spans="1:9">
+      <c r="A967" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B967" t="s">
+        <v>13</v>
+      </c>
+      <c r="C967">
+        <v>31</v>
+      </c>
+      <c r="D967">
+        <v>16</v>
+      </c>
+      <c r="E967">
+        <v>2</v>
+      </c>
+      <c r="F967" t="s">
+        <v>10</v>
+      </c>
+      <c r="G967">
+        <v>18</v>
+      </c>
+      <c r="H967">
+        <v>7.5</v>
+      </c>
+      <c r="I967">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="968" spans="1:9">
+      <c r="A968" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B968" t="s">
+        <v>13</v>
+      </c>
+      <c r="C968">
+        <v>31</v>
+      </c>
+      <c r="D968">
+        <v>16</v>
+      </c>
+      <c r="E968">
+        <v>3</v>
+      </c>
+      <c r="F968" t="s">
+        <v>10</v>
+      </c>
+      <c r="G968">
+        <v>8</v>
+      </c>
+      <c r="H968">
+        <v>5</v>
+      </c>
+      <c r="I968">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="969" spans="1:9">
+      <c r="A969" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B969" t="s">
+        <v>13</v>
+      </c>
+      <c r="C969">
+        <v>31</v>
+      </c>
+      <c r="D969">
+        <v>16</v>
+      </c>
+      <c r="E969">
+        <v>4</v>
+      </c>
+      <c r="F969" t="s">
+        <v>12</v>
+      </c>
+      <c r="G969">
+        <v>32</v>
+      </c>
+      <c r="H969">
+        <v>6</v>
+      </c>
+      <c r="I969">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="970" spans="1:9">
+      <c r="A970" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B970" t="s">
+        <v>13</v>
+      </c>
+      <c r="C970">
+        <v>31</v>
+      </c>
+      <c r="D970">
+        <v>19</v>
+      </c>
+      <c r="E970">
+        <v>1</v>
+      </c>
+      <c r="F970" t="s">
+        <v>10</v>
+      </c>
+      <c r="G970">
+        <v>33</v>
+      </c>
+      <c r="H970">
+        <v>8</v>
+      </c>
+      <c r="I970">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="971" spans="1:9">
+      <c r="A971" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B971" t="s">
+        <v>13</v>
+      </c>
+      <c r="C971">
+        <v>31</v>
+      </c>
+      <c r="D971">
+        <v>19</v>
+      </c>
+      <c r="E971">
+        <v>2</v>
+      </c>
+      <c r="F971" t="s">
+        <v>11</v>
+      </c>
+      <c r="G971">
+        <v>26.5</v>
+      </c>
+      <c r="H971">
+        <v>2</v>
+      </c>
+      <c r="I971">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="972" spans="1:9">
+      <c r="A972" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B972" t="s">
+        <v>13</v>
+      </c>
+      <c r="C972">
+        <v>31</v>
+      </c>
+      <c r="D972">
+        <v>19</v>
+      </c>
+      <c r="E972">
+        <v>3</v>
+      </c>
+      <c r="F972" t="s">
+        <v>10</v>
+      </c>
+      <c r="G972">
+        <v>53</v>
+      </c>
+      <c r="H972">
+        <v>5</v>
+      </c>
+      <c r="I972">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="973" spans="1:9">
+      <c r="A973" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B973" t="s">
+        <v>13</v>
+      </c>
+      <c r="C973">
+        <v>31</v>
+      </c>
+      <c r="D973">
+        <v>19</v>
+      </c>
+      <c r="E973">
+        <v>4</v>
+      </c>
+      <c r="F973" t="s">
+        <v>10</v>
+      </c>
+      <c r="G973">
+        <v>16</v>
+      </c>
+      <c r="H973">
+        <v>8.5</v>
+      </c>
+      <c r="I973">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="974" spans="1:9">
+      <c r="A974" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B974" t="s">
+        <v>13</v>
+      </c>
+      <c r="C974">
+        <v>31</v>
+      </c>
+      <c r="D974">
+        <v>23</v>
+      </c>
+      <c r="E974">
+        <v>1</v>
+      </c>
+      <c r="F974" t="s">
+        <v>11</v>
+      </c>
+      <c r="G974">
+        <v>8</v>
+      </c>
+      <c r="H974">
+        <v>2</v>
+      </c>
+      <c r="I974">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="975" spans="1:9">
+      <c r="A975" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B975" t="s">
+        <v>13</v>
+      </c>
+      <c r="C975">
+        <v>31</v>
+      </c>
+      <c r="D975">
+        <v>23</v>
+      </c>
+      <c r="E975">
+        <v>2</v>
+      </c>
+      <c r="F975" t="s">
+        <v>10</v>
+      </c>
+      <c r="G975">
+        <v>24</v>
+      </c>
+      <c r="H975">
+        <v>2</v>
+      </c>
+      <c r="I975">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="976" spans="1:9">
+      <c r="A976" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B976" t="s">
+        <v>13</v>
+      </c>
+      <c r="C976">
+        <v>31</v>
+      </c>
+      <c r="D976">
+        <v>23</v>
+      </c>
+      <c r="E976">
+        <v>3</v>
+      </c>
+      <c r="F976" t="s">
+        <v>12</v>
+      </c>
+      <c r="G976">
+        <v>7</v>
+      </c>
+      <c r="H976">
+        <v>3</v>
+      </c>
+      <c r="I976">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="977" spans="1:9">
+      <c r="A977" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B977" t="s">
+        <v>13</v>
+      </c>
+      <c r="C977">
+        <v>31</v>
+      </c>
+      <c r="D977">
+        <v>23</v>
+      </c>
+      <c r="E977">
+        <v>4</v>
+      </c>
+      <c r="F977" t="s">
+        <v>10</v>
+      </c>
+      <c r="G977">
+        <v>30</v>
+      </c>
+      <c r="H977">
+        <v>11</v>
+      </c>
+      <c r="I977">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="978" spans="1:9">
+      <c r="A978" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B978" t="s">
+        <v>13</v>
+      </c>
+      <c r="C978">
+        <v>31</v>
+      </c>
+      <c r="D978">
+        <v>25</v>
+      </c>
+      <c r="E978">
+        <v>1</v>
+      </c>
+      <c r="F978" t="s">
+        <v>10</v>
+      </c>
+      <c r="G978">
+        <v>11</v>
+      </c>
+      <c r="H978">
+        <v>4</v>
+      </c>
+      <c r="I978">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="979" spans="1:9">
+      <c r="A979" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B979" t="s">
+        <v>13</v>
+      </c>
+      <c r="C979">
+        <v>31</v>
+      </c>
+      <c r="D979">
+        <v>25</v>
+      </c>
+      <c r="E979">
+        <v>2</v>
+      </c>
+      <c r="F979" t="s">
+        <v>10</v>
+      </c>
+      <c r="G979">
+        <v>29</v>
+      </c>
+      <c r="H979">
+        <v>2</v>
+      </c>
+      <c r="I979">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="980" spans="1:9">
+      <c r="A980" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B980" t="s">
+        <v>13</v>
+      </c>
+      <c r="C980">
+        <v>31</v>
+      </c>
+      <c r="D980">
+        <v>25</v>
+      </c>
+      <c r="E980">
+        <v>3</v>
+      </c>
+      <c r="F980" t="s">
+        <v>27</v>
+      </c>
+      <c r="G980">
+        <v>24</v>
+      </c>
+      <c r="H980">
+        <v>1</v>
+      </c>
+      <c r="I980">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="981" spans="1:9">
+      <c r="A981" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B981" t="s">
+        <v>13</v>
+      </c>
+      <c r="C981">
+        <v>31</v>
+      </c>
+      <c r="D981">
+        <v>25</v>
+      </c>
+      <c r="E981">
+        <v>4</v>
+      </c>
+      <c r="F981" t="s">
+        <v>10</v>
+      </c>
+      <c r="G981">
+        <v>27</v>
+      </c>
+      <c r="H981">
+        <v>9.5</v>
+      </c>
+      <c r="I981">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="982" spans="1:9">
+      <c r="A982" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B982" t="s">
+        <v>13</v>
+      </c>
+      <c r="C982">
+        <v>31</v>
+      </c>
+      <c r="D982">
+        <v>30</v>
+      </c>
+      <c r="E982">
+        <v>1</v>
+      </c>
+      <c r="F982" t="s">
+        <v>12</v>
+      </c>
+      <c r="G982">
+        <v>10</v>
+      </c>
+      <c r="H982">
+        <v>8</v>
+      </c>
+      <c r="I982">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="983" spans="1:9">
+      <c r="A983" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B983" t="s">
+        <v>13</v>
+      </c>
+      <c r="C983">
+        <v>31</v>
+      </c>
+      <c r="D983">
+        <v>30</v>
+      </c>
+      <c r="E983">
+        <v>2</v>
+      </c>
+      <c r="F983" t="s">
+        <v>10</v>
+      </c>
+      <c r="G983">
+        <v>42</v>
+      </c>
+      <c r="H983">
+        <v>2</v>
+      </c>
+      <c r="I983">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="984" spans="1:9">
+      <c r="A984" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B984" t="s">
+        <v>13</v>
+      </c>
+      <c r="C984">
+        <v>31</v>
+      </c>
+      <c r="D984">
+        <v>30</v>
+      </c>
+      <c r="E984">
+        <v>3</v>
+      </c>
+      <c r="F984" t="s">
+        <v>12</v>
+      </c>
+      <c r="G984">
+        <v>16</v>
+      </c>
+      <c r="H984">
+        <v>12.5</v>
+      </c>
+      <c r="I984">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="985" spans="1:9">
+      <c r="A985" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B985" t="s">
+        <v>13</v>
+      </c>
+      <c r="C985">
+        <v>31</v>
+      </c>
+      <c r="D985">
+        <v>30</v>
+      </c>
+      <c r="E985">
+        <v>4</v>
+      </c>
+      <c r="F985" t="s">
+        <v>10</v>
+      </c>
+      <c r="G985">
+        <v>57</v>
+      </c>
+      <c r="H985">
+        <v>5</v>
+      </c>
+      <c r="I985">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="986" spans="1:9">
+      <c r="A986" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B986" t="s">
+        <v>13</v>
+      </c>
+      <c r="C986">
+        <v>31</v>
+      </c>
+      <c r="D986">
+        <v>36</v>
+      </c>
+      <c r="E986">
+        <v>1</v>
+      </c>
+      <c r="F986" t="s">
+        <v>12</v>
+      </c>
+      <c r="G986">
+        <v>13</v>
+      </c>
+      <c r="H986">
+        <v>21</v>
+      </c>
+      <c r="I986">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="987" spans="1:9">
+      <c r="A987" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B987" t="s">
+        <v>13</v>
+      </c>
+      <c r="C987">
+        <v>31</v>
+      </c>
+      <c r="D987">
+        <v>36</v>
+      </c>
+      <c r="E987">
+        <v>2</v>
+      </c>
+      <c r="F987" t="s">
+        <v>12</v>
+      </c>
+      <c r="G987">
+        <v>47</v>
+      </c>
+      <c r="H987">
+        <v>22</v>
+      </c>
+      <c r="I987">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="988" spans="1:9">
+      <c r="A988" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B988" t="s">
+        <v>13</v>
+      </c>
+      <c r="C988">
+        <v>31</v>
+      </c>
+      <c r="D988">
+        <v>36</v>
+      </c>
+      <c r="E988">
+        <v>3</v>
+      </c>
+      <c r="F988" t="s">
+        <v>12</v>
+      </c>
+      <c r="G988">
+        <v>36</v>
+      </c>
+      <c r="H988">
+        <v>8</v>
+      </c>
+      <c r="I988">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="989" spans="1:9">
+      <c r="A989" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B989" t="s">
+        <v>13</v>
+      </c>
+      <c r="C989">
+        <v>31</v>
+      </c>
+      <c r="D989">
+        <v>36</v>
+      </c>
+      <c r="E989">
+        <v>4</v>
+      </c>
+      <c r="F989" t="s">
+        <v>12</v>
+      </c>
+      <c r="G989">
+        <v>18</v>
+      </c>
+      <c r="H989">
+        <v>12</v>
+      </c>
+      <c r="I989">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="990" spans="1:9">
+      <c r="A990" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B990" t="s">
+        <v>13</v>
+      </c>
+      <c r="C990">
+        <v>31</v>
+      </c>
+      <c r="D990">
+        <v>37</v>
+      </c>
+      <c r="E990">
+        <v>1</v>
+      </c>
+      <c r="F990" t="s">
+        <v>12</v>
+      </c>
+      <c r="G990">
+        <v>8</v>
+      </c>
+      <c r="H990">
+        <v>6</v>
+      </c>
+      <c r="I990">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="991" spans="1:9">
+      <c r="A991" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B991" t="s">
+        <v>13</v>
+      </c>
+      <c r="C991">
+        <v>31</v>
+      </c>
+      <c r="D991">
+        <v>37</v>
+      </c>
+      <c r="E991">
+        <v>2</v>
+      </c>
+      <c r="F991" t="s">
+        <v>12</v>
+      </c>
+      <c r="G991">
+        <v>5</v>
+      </c>
+      <c r="H991">
+        <v>13</v>
+      </c>
+      <c r="I991">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="992" spans="1:9">
+      <c r="A992" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B992" t="s">
+        <v>13</v>
+      </c>
+      <c r="C992">
+        <v>31</v>
+      </c>
+      <c r="D992">
+        <v>37</v>
+      </c>
+      <c r="E992">
+        <v>3</v>
+      </c>
+      <c r="F992" t="s">
+        <v>12</v>
+      </c>
+      <c r="G992">
+        <v>9</v>
+      </c>
+      <c r="H992">
+        <v>5.5</v>
+      </c>
+      <c r="I992">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="993" spans="1:9">
+      <c r="A993" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B993" t="s">
+        <v>13</v>
+      </c>
+      <c r="C993">
+        <v>31</v>
+      </c>
+      <c r="D993">
+        <v>37</v>
+      </c>
+      <c r="E993">
+        <v>4</v>
+      </c>
+      <c r="F993" t="s">
+        <v>12</v>
+      </c>
+      <c r="G993">
+        <v>21</v>
+      </c>
+      <c r="H993">
+        <v>6</v>
+      </c>
+      <c r="I993">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="994" spans="1:9">
+      <c r="A994" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B994" t="s">
+        <v>13</v>
+      </c>
+      <c r="C994">
+        <v>31</v>
+      </c>
+      <c r="D994">
+        <v>40</v>
+      </c>
+      <c r="E994">
+        <v>1</v>
+      </c>
+      <c r="F994" t="s">
+        <v>31</v>
+      </c>
+      <c r="G994">
+        <v>32</v>
+      </c>
+      <c r="H994">
+        <v>7.5</v>
+      </c>
+      <c r="I994">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="995" spans="1:9">
+      <c r="A995" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B995" t="s">
+        <v>13</v>
+      </c>
+      <c r="C995">
+        <v>31</v>
+      </c>
+      <c r="D995">
+        <v>40</v>
+      </c>
+      <c r="E995">
+        <v>2</v>
+      </c>
+      <c r="F995" t="s">
+        <v>16</v>
+      </c>
+      <c r="G995">
+        <v>16</v>
+      </c>
+      <c r="H995">
+        <v>7</v>
+      </c>
+      <c r="I995">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="996" spans="1:9">
+      <c r="A996" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B996" t="s">
+        <v>13</v>
+      </c>
+      <c r="C996">
+        <v>31</v>
+      </c>
+      <c r="D996">
+        <v>40</v>
+      </c>
+      <c r="E996">
+        <v>3</v>
+      </c>
+      <c r="F996" t="s">
+        <v>15</v>
+      </c>
+      <c r="G996">
+        <v>45</v>
+      </c>
+      <c r="H996">
+        <v>5</v>
+      </c>
+      <c r="I996">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="997" spans="1:9">
+      <c r="A997" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B997" t="s">
+        <v>13</v>
+      </c>
+      <c r="C997">
+        <v>31</v>
+      </c>
+      <c r="D997">
+        <v>40</v>
+      </c>
+      <c r="E997">
+        <v>4</v>
+      </c>
+      <c r="F997" t="s">
+        <v>32</v>
+      </c>
+      <c r="G997">
+        <v>14</v>
+      </c>
+      <c r="H997">
+        <v>24</v>
+      </c>
+      <c r="I997">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="998" spans="1:9">
+      <c r="A998" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B998" t="s">
+        <v>13</v>
+      </c>
+      <c r="C998">
+        <v>31</v>
+      </c>
+      <c r="D998">
+        <v>49</v>
+      </c>
+      <c r="E998">
+        <v>1</v>
+      </c>
+      <c r="F998" t="s">
+        <v>12</v>
+      </c>
+      <c r="G998">
+        <v>30</v>
+      </c>
+      <c r="H998">
+        <v>35</v>
+      </c>
+      <c r="I998">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="999" spans="1:9">
+      <c r="A999" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B999" t="s">
+        <v>13</v>
+      </c>
+      <c r="C999">
+        <v>31</v>
+      </c>
+      <c r="D999">
+        <v>49</v>
+      </c>
+      <c r="E999">
+        <v>2</v>
+      </c>
+      <c r="F999" t="s">
+        <v>10</v>
+      </c>
+      <c r="G999">
+        <v>6</v>
+      </c>
+      <c r="H999">
+        <v>5</v>
+      </c>
+      <c r="I999">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:9">
+      <c r="A1000" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1000">
+        <v>31</v>
+      </c>
+      <c r="D1000">
+        <v>49</v>
+      </c>
+      <c r="E1000">
+        <v>3</v>
+      </c>
+      <c r="F1000" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1000">
+        <v>25</v>
+      </c>
+      <c r="H1000">
+        <v>38</v>
+      </c>
+      <c r="I1000">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:9">
+      <c r="A1001" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1001">
+        <v>31</v>
+      </c>
+      <c r="D1001">
+        <v>49</v>
+      </c>
+      <c r="E1001">
+        <v>4</v>
+      </c>
+      <c r="F1001" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1001">
+        <v>25</v>
+      </c>
+      <c r="H1001">
+        <v>12</v>
+      </c>
+      <c r="I1001">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:9">
+      <c r="A1002" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1002">
+        <v>46</v>
+      </c>
+      <c r="D1002">
+        <v>0</v>
+      </c>
+      <c r="E1002">
+        <v>1</v>
+      </c>
+      <c r="F1002" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1002">
+        <v>22</v>
+      </c>
+      <c r="H1002">
+        <v>10</v>
+      </c>
+      <c r="I1002">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:9">
+      <c r="A1003" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1003">
+        <v>46</v>
+      </c>
+      <c r="D1003">
+        <v>0</v>
+      </c>
+      <c r="E1003">
+        <v>2</v>
+      </c>
+      <c r="F1003" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1003">
+        <v>24</v>
+      </c>
+      <c r="H1003">
+        <v>1</v>
+      </c>
+      <c r="I1003">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:9">
+      <c r="A1004" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1004">
+        <v>46</v>
+      </c>
+      <c r="D1004">
+        <v>0</v>
+      </c>
+      <c r="E1004">
+        <v>3</v>
+      </c>
+      <c r="F1004" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1004">
+        <v>24</v>
+      </c>
+      <c r="H1004">
+        <v>4</v>
+      </c>
+      <c r="I1004">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:9">
+      <c r="A1005" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1005">
+        <v>46</v>
+      </c>
+      <c r="D1005">
+        <v>0</v>
+      </c>
+      <c r="E1005">
+        <v>4</v>
+      </c>
+      <c r="F1005" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1005">
+        <v>21</v>
+      </c>
+      <c r="H1005">
+        <v>20</v>
+      </c>
+      <c r="I1005">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:9">
+      <c r="A1006" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1006">
+        <v>46</v>
+      </c>
+      <c r="D1006">
+        <v>4</v>
+      </c>
+      <c r="E1006">
+        <v>1</v>
+      </c>
+      <c r="F1006" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1006">
+        <v>8</v>
+      </c>
+      <c r="H1006">
+        <v>16</v>
+      </c>
+      <c r="I1006">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:9">
+      <c r="A1007" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1007">
+        <v>46</v>
+      </c>
+      <c r="D1007">
+        <v>4</v>
+      </c>
+      <c r="E1007">
+        <v>2</v>
+      </c>
+      <c r="F1007" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1007">
+        <v>19</v>
+      </c>
+      <c r="H1007">
+        <v>1</v>
+      </c>
+      <c r="I1007">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:9">
+      <c r="A1008" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1008">
+        <v>46</v>
+      </c>
+      <c r="D1008">
+        <v>4</v>
+      </c>
+      <c r="E1008">
+        <v>3</v>
+      </c>
+      <c r="F1008" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1008">
+        <v>9</v>
+      </c>
+      <c r="H1008">
+        <v>2</v>
+      </c>
+      <c r="I1008">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:9">
+      <c r="A1009" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1009">
+        <v>46</v>
+      </c>
+      <c r="D1009">
+        <v>4</v>
+      </c>
+      <c r="E1009">
+        <v>4</v>
+      </c>
+      <c r="F1009" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1009">
+        <v>8</v>
+      </c>
+      <c r="H1009">
+        <v>1.5</v>
+      </c>
+      <c r="I1009">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:9">
+      <c r="A1010" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1010">
+        <v>46</v>
+      </c>
+      <c r="D1010">
+        <v>12</v>
+      </c>
+      <c r="E1010">
+        <v>1</v>
+      </c>
+      <c r="F1010" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1010">
+        <v>6</v>
+      </c>
+      <c r="H1010">
+        <v>18</v>
+      </c>
+      <c r="I1010">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:9">
+      <c r="A1011" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1011">
+        <v>46</v>
+      </c>
+      <c r="D1011">
+        <v>12</v>
+      </c>
+      <c r="E1011">
+        <v>2</v>
+      </c>
+      <c r="F1011" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1011">
+        <v>13</v>
+      </c>
+      <c r="H1011">
+        <v>5</v>
+      </c>
+      <c r="I1011">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:9">
+      <c r="A1012" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1012">
+        <v>46</v>
+      </c>
+      <c r="D1012">
+        <v>12</v>
+      </c>
+      <c r="E1012">
+        <v>3</v>
+      </c>
+      <c r="F1012" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1012">
+        <v>11</v>
+      </c>
+      <c r="H1012">
+        <v>4</v>
+      </c>
+      <c r="I1012">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:9">
+      <c r="A1013" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1013">
+        <v>46</v>
+      </c>
+      <c r="D1013">
+        <v>12</v>
+      </c>
+      <c r="E1013">
+        <v>4</v>
+      </c>
+      <c r="F1013" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1013">
+        <v>27</v>
+      </c>
+      <c r="H1013">
+        <v>10</v>
+      </c>
+      <c r="I1013">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:9">
+      <c r="A1014" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1014">
+        <v>46</v>
+      </c>
+      <c r="D1014">
+        <v>13</v>
+      </c>
+      <c r="E1014">
+        <v>1</v>
+      </c>
+      <c r="F1014" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1014">
+        <v>7</v>
+      </c>
+      <c r="H1014">
+        <v>16</v>
+      </c>
+      <c r="I1014">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:9">
+      <c r="A1015" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1015">
+        <v>46</v>
+      </c>
+      <c r="D1015">
+        <v>13</v>
+      </c>
+      <c r="E1015">
+        <v>2</v>
+      </c>
+      <c r="F1015" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1015">
+        <v>18</v>
+      </c>
+      <c r="H1015">
+        <v>1</v>
+      </c>
+      <c r="I1015">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:9">
+      <c r="A1016" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1016">
+        <v>46</v>
+      </c>
+      <c r="D1016">
+        <v>13</v>
+      </c>
+      <c r="E1016">
+        <v>3</v>
+      </c>
+      <c r="F1016" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1016">
+        <v>28</v>
+      </c>
+      <c r="H1016">
+        <v>14</v>
+      </c>
+      <c r="I1016">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:9">
+      <c r="A1017" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1017">
+        <v>46</v>
+      </c>
+      <c r="D1017">
+        <v>13</v>
+      </c>
+      <c r="E1017">
+        <v>4</v>
+      </c>
+      <c r="F1017" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1017">
+        <v>10</v>
+      </c>
+      <c r="H1017">
+        <v>17</v>
+      </c>
+      <c r="I1017">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:9">
+      <c r="A1018" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1018">
+        <v>46</v>
+      </c>
+      <c r="D1018">
+        <v>17</v>
+      </c>
+      <c r="E1018">
+        <v>1</v>
+      </c>
+      <c r="F1018" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1018">
+        <v>10</v>
+      </c>
+      <c r="H1018">
+        <v>2.5</v>
+      </c>
+      <c r="I1018">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:9">
+      <c r="A1019" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1019">
+        <v>46</v>
+      </c>
+      <c r="D1019">
+        <v>17</v>
+      </c>
+      <c r="E1019">
+        <v>2</v>
+      </c>
+      <c r="F1019" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1019">
+        <v>12</v>
+      </c>
+      <c r="H1019">
+        <v>12</v>
+      </c>
+      <c r="I1019">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:9">
+      <c r="A1020" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1020">
+        <v>46</v>
+      </c>
+      <c r="D1020">
+        <v>17</v>
+      </c>
+      <c r="E1020">
+        <v>3</v>
+      </c>
+      <c r="F1020" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1020">
+        <v>17</v>
+      </c>
+      <c r="H1020">
+        <v>16</v>
+      </c>
+      <c r="I1020">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:9">
+      <c r="A1021" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1021">
+        <v>46</v>
+      </c>
+      <c r="D1021">
+        <v>17</v>
+      </c>
+      <c r="E1021">
+        <v>4</v>
+      </c>
+      <c r="F1021" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1021">
+        <v>16</v>
+      </c>
+      <c r="H1021">
+        <v>11</v>
+      </c>
+      <c r="I1021">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:9">
+      <c r="A1022" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1022">
+        <v>46</v>
+      </c>
+      <c r="D1022">
+        <v>33</v>
+      </c>
+      <c r="E1022">
+        <v>1</v>
+      </c>
+      <c r="F1022" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1022">
+        <v>17</v>
+      </c>
+      <c r="H1022">
+        <v>2</v>
+      </c>
+      <c r="I1022">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:9">
+      <c r="A1023" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1023">
+        <v>46</v>
+      </c>
+      <c r="D1023">
+        <v>33</v>
+      </c>
+      <c r="E1023">
+        <v>2</v>
+      </c>
+      <c r="F1023" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1023">
+        <v>32</v>
+      </c>
+      <c r="H1023">
+        <v>14</v>
+      </c>
+      <c r="I1023">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:9">
+      <c r="A1024" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1024">
+        <v>46</v>
+      </c>
+      <c r="D1024">
+        <v>33</v>
+      </c>
+      <c r="E1024">
+        <v>3</v>
+      </c>
+      <c r="F1024" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1024">
+        <v>54</v>
+      </c>
+      <c r="H1024">
+        <v>3.5</v>
+      </c>
+      <c r="I1024">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:9">
+      <c r="A1025" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1025">
+        <v>46</v>
+      </c>
+      <c r="D1025">
+        <v>33</v>
+      </c>
+      <c r="E1025">
+        <v>4</v>
+      </c>
+      <c r="F1025" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1025">
+        <v>23</v>
+      </c>
+      <c r="H1025">
+        <v>9</v>
+      </c>
+      <c r="I1025">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:9">
+      <c r="A1026" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1026">
+        <v>46</v>
+      </c>
+      <c r="D1026">
+        <v>35</v>
+      </c>
+      <c r="E1026">
+        <v>1</v>
+      </c>
+      <c r="F1026" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1026">
+        <v>16</v>
+      </c>
+      <c r="H1026">
+        <v>6</v>
+      </c>
+      <c r="I1026">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:9">
+      <c r="A1027" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1027">
+        <v>46</v>
+      </c>
+      <c r="D1027">
+        <v>35</v>
+      </c>
+      <c r="E1027">
+        <v>2</v>
+      </c>
+      <c r="F1027" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1027">
+        <v>21</v>
+      </c>
+      <c r="H1027">
+        <v>15</v>
+      </c>
+      <c r="I1027">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:9">
+      <c r="A1028" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1028">
+        <v>46</v>
+      </c>
+      <c r="D1028">
+        <v>35</v>
+      </c>
+      <c r="E1028">
+        <v>3</v>
+      </c>
+      <c r="F1028" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1028">
+        <v>35</v>
+      </c>
+      <c r="H1028">
+        <v>11</v>
+      </c>
+      <c r="I1028">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:9">
+      <c r="A1029" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1029">
+        <v>46</v>
+      </c>
+      <c r="D1029">
+        <v>35</v>
+      </c>
+      <c r="E1029">
+        <v>4</v>
+      </c>
+      <c r="F1029" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1029">
+        <v>25</v>
+      </c>
+      <c r="H1029">
+        <v>5</v>
+      </c>
+      <c r="I1029">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:9">
+      <c r="A1030" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1030">
+        <v>46</v>
+      </c>
+      <c r="D1030">
+        <v>44</v>
+      </c>
+      <c r="E1030">
+        <v>1</v>
+      </c>
+      <c r="F1030" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1030">
+        <v>25</v>
+      </c>
+      <c r="H1030">
+        <v>17</v>
+      </c>
+      <c r="I1030">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:9">
+      <c r="A1031" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1031">
+        <v>46</v>
+      </c>
+      <c r="D1031">
+        <v>44</v>
+      </c>
+      <c r="E1031">
+        <v>2</v>
+      </c>
+      <c r="F1031" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1031">
+        <v>32</v>
+      </c>
+      <c r="H1031">
+        <v>27</v>
+      </c>
+      <c r="I1031">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:9">
+      <c r="A1032" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1032">
+        <v>46</v>
+      </c>
+      <c r="D1032">
+        <v>44</v>
+      </c>
+      <c r="E1032">
+        <v>3</v>
+      </c>
+      <c r="F1032" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1032">
+        <v>20</v>
+      </c>
+      <c r="H1032">
+        <v>5</v>
+      </c>
+      <c r="I1032">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:9">
+      <c r="A1033" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1033">
+        <v>46</v>
+      </c>
+      <c r="D1033">
+        <v>44</v>
+      </c>
+      <c r="E1033">
+        <v>4</v>
+      </c>
+      <c r="F1033" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1033">
+        <v>50</v>
+      </c>
+      <c r="H1033">
+        <v>6</v>
+      </c>
+      <c r="I1033">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:9">
+      <c r="A1034" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1034">
+        <v>46</v>
+      </c>
+      <c r="D1034">
+        <v>49</v>
+      </c>
+      <c r="E1034">
+        <v>1</v>
+      </c>
+      <c r="F1034" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1034">
+        <v>22</v>
+      </c>
+      <c r="H1034">
+        <v>10</v>
+      </c>
+      <c r="I1034">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:9">
+      <c r="A1035" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1035">
+        <v>46</v>
+      </c>
+      <c r="D1035">
+        <v>49</v>
+      </c>
+      <c r="E1035">
+        <v>2</v>
+      </c>
+      <c r="F1035" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1035">
+        <v>26</v>
+      </c>
+      <c r="H1035">
+        <v>5</v>
+      </c>
+      <c r="I1035">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:9">
+      <c r="A1036" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1036">
+        <v>46</v>
+      </c>
+      <c r="D1036">
+        <v>49</v>
+      </c>
+      <c r="E1036">
+        <v>3</v>
+      </c>
+      <c r="F1036" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1036">
+        <v>26</v>
+      </c>
+      <c r="H1036">
+        <v>4</v>
+      </c>
+      <c r="I1036">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:9">
+      <c r="A1037" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1037">
+        <v>46</v>
+      </c>
+      <c r="D1037">
+        <v>49</v>
+      </c>
+      <c r="E1037">
+        <v>4</v>
+      </c>
+      <c r="F1037" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1037">
+        <v>27</v>
+      </c>
+      <c r="H1037">
+        <v>6</v>
+      </c>
+      <c r="I1037">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:9">
+      <c r="A1038" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1038">
+        <v>46</v>
+      </c>
+      <c r="D1038">
+        <v>50</v>
+      </c>
+      <c r="E1038">
+        <v>1</v>
+      </c>
+      <c r="F1038" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1038">
+        <v>20</v>
+      </c>
+      <c r="H1038">
+        <v>45</v>
+      </c>
+      <c r="I1038">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:9">
+      <c r="A1039" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1039">
+        <v>46</v>
+      </c>
+      <c r="D1039">
+        <v>50</v>
+      </c>
+      <c r="E1039">
+        <v>2</v>
+      </c>
+      <c r="F1039" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1039">
+        <v>41</v>
+      </c>
+      <c r="H1039">
+        <v>31</v>
+      </c>
+      <c r="I1039">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:9">
+      <c r="A1040" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1040">
+        <v>46</v>
+      </c>
+      <c r="D1040">
+        <v>50</v>
+      </c>
+      <c r="E1040">
+        <v>3</v>
+      </c>
+      <c r="F1040" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1040">
+        <v>21</v>
+      </c>
+      <c r="H1040">
+        <v>7</v>
+      </c>
+      <c r="I1040">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:9">
+      <c r="A1041" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1041">
+        <v>46</v>
+      </c>
+      <c r="D1041">
+        <v>50</v>
+      </c>
+      <c r="E1041">
+        <v>4</v>
+      </c>
+      <c r="F1041" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1041">
+        <v>23</v>
+      </c>
+      <c r="H1041">
+        <v>9</v>
+      </c>
+      <c r="I1041">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25333,11 +28690,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86C5891-69A1-4D62-BE28-E9AD2897C14B}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25348,10 +28705,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -25362,10 +28719,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -25373,10 +28730,10 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -25384,10 +28741,10 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -25395,10 +28752,10 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -25406,10 +28763,10 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -25417,10 +28774,10 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -25428,10 +28785,10 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -25439,10 +28796,10 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -25450,10 +28807,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -25461,10 +28818,10 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -25472,79 +28829,120 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="B18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" t="s">
-        <v>56</v>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C17">
-    <sortCondition ref="B2:B17"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C18">
+    <sortCondition ref="B2:B18"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25556,7 +28954,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
+      <selection pane="bottomLeft" activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25579,34 +28977,34 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="H1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="I1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="J1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="K1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="L1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -25623,10 +29021,10 @@
         <v>144.71919510000001</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G2">
         <v>194</v>
@@ -25644,7 +29042,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="L2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -25661,7 +29059,7 @@
         <v>144.70913200000001</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G3">
         <v>107</v>
@@ -25687,7 +29085,7 @@
         <v>144.7155032</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G4">
         <v>82</v>
@@ -25713,7 +29111,7 @@
         <v>144.71575200000001</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G5">
         <v>51</v>
@@ -25739,7 +29137,7 @@
         <v>144.7205319</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G6">
         <v>34</v>
@@ -25765,7 +29163,7 @@
         <v>144.7259732</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G7">
         <v>211</v>
@@ -25791,7 +29189,7 @@
         <v>144.71275600000001</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G8">
         <v>62</v>
@@ -25817,7 +29215,7 @@
         <v>144.72265540000001</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G9">
         <v>183</v>
@@ -25843,7 +29241,7 @@
         <v>144.704466</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G10">
         <v>694</v>
@@ -25869,7 +29267,7 @@
         <v>144.71844960000001</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G11">
         <v>194</v>
@@ -25895,7 +29293,7 @@
         <v>144.7060816</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G12">
         <v>355</v>
@@ -25921,7 +29319,7 @@
         <v>144.71090899999999</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G13">
         <v>251</v>
@@ -25947,7 +29345,10 @@
         <v>144.71125050000001</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>77</v>
+      </c>
+      <c r="F14" t="s">
+        <v>81</v>
       </c>
       <c r="G14">
         <v>256</v>
@@ -25965,7 +29366,7 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="L14" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -25982,10 +29383,10 @@
         <v>144.71908690000001</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G15">
         <v>110</v>
@@ -26003,7 +29404,7 @@
         <v>0.59444444444444444</v>
       </c>
       <c r="L15" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -26020,7 +29421,7 @@
         <v>144.7077371</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G16">
         <v>84</v>
@@ -26046,7 +29447,7 @@
         <v>144.7193522</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G17">
         <v>32</v>
@@ -26072,7 +29473,7 @@
         <v>144.72068590000001</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G18">
         <v>142</v>
@@ -26098,7 +29499,7 @@
         <v>144.71964259999999</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G19">
         <v>56</v>
@@ -26124,7 +29525,7 @@
         <v>144.72668590000001</v>
       </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G20">
         <v>203</v>
@@ -26150,7 +29551,7 @@
         <v>144.7186212</v>
       </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G21">
         <v>143</v>
@@ -26176,7 +29577,7 @@
         <v>144.7092615</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G22">
         <v>116</v>
@@ -26202,7 +29603,7 @@
         <v>144.71989070000001</v>
       </c>
       <c r="E23" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G23">
         <v>290</v>
@@ -26228,7 +29629,7 @@
         <v>144.72410740000001</v>
       </c>
       <c r="E24" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G24">
         <v>55</v>
@@ -26254,10 +29655,10 @@
         <v>144.70540700000001</v>
       </c>
       <c r="E25" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F25" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G25">
         <v>328</v>
@@ -26275,7 +29676,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="L25" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -26292,10 +29693,10 @@
         <v>144.7118169</v>
       </c>
       <c r="E26" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G26">
         <v>220</v>
@@ -26313,7 +29714,7 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="L26" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -26330,7 +29731,7 @@
         <v>144.72518289999999</v>
       </c>
       <c r="E27" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G27">
         <v>196</v>
@@ -26356,10 +29757,10 @@
         <v>144.7228495</v>
       </c>
       <c r="E28" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F28" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="G28">
         <v>274</v>
@@ -26377,7 +29778,7 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="L28" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -26394,7 +29795,7 @@
         <v>144.72791480000001</v>
       </c>
       <c r="E29" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G29">
         <v>82</v>
@@ -26420,10 +29821,10 @@
         <v>144.727586</v>
       </c>
       <c r="E30" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F30" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="G30">
         <v>225</v>
@@ -26441,7 +29842,7 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="L30" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -26458,7 +29859,7 @@
         <v>144.7241386</v>
       </c>
       <c r="E31" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G31">
         <v>136</v>
@@ -26484,7 +29885,7 @@
         <v>144.72728530000001</v>
       </c>
       <c r="E32" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G32">
         <v>169</v>
@@ -26510,7 +29911,10 @@
         <v>144.70608669999999</v>
       </c>
       <c r="E33" t="s">
-        <v>70</v>
+        <v>80</v>
+      </c>
+      <c r="F33" t="s">
+        <v>78</v>
       </c>
       <c r="G33">
         <v>62</v>
@@ -26521,6 +29925,15 @@
       <c r="I33">
         <v>933</v>
       </c>
+      <c r="J33" s="1">
+        <v>44750</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0.59375</v>
+      </c>
+      <c r="L33" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
@@ -26536,7 +29949,7 @@
         <v>144.70917560000001</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G34">
         <v>119</v>
@@ -26562,10 +29975,10 @@
         <v>144.7213993</v>
       </c>
       <c r="E35" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G35">
         <v>61</v>
@@ -26583,7 +29996,7 @@
         <v>0.57986111111111105</v>
       </c>
       <c r="L35" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -26600,7 +30013,7 @@
         <v>144.70526770000001</v>
       </c>
       <c r="E36" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G36">
         <v>670</v>
@@ -26626,7 +30039,7 @@
         <v>144.70831219999999</v>
       </c>
       <c r="E37" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G37">
         <v>40</v>
@@ -26652,10 +30065,10 @@
         <v>144.72075369999999</v>
       </c>
       <c r="E38" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F38" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="G38">
         <v>341</v>
@@ -26673,7 +30086,7 @@
         <v>0.64930555555555558</v>
       </c>
       <c r="L38" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -26690,7 +30103,7 @@
         <v>144.72547879999999</v>
       </c>
       <c r="E39" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G39">
         <v>185</v>
@@ -26716,7 +30129,7 @@
         <v>144.72644990000001</v>
       </c>
       <c r="E40" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G40">
         <v>118</v>
@@ -26742,7 +30155,7 @@
         <v>144.71746390000001</v>
       </c>
       <c r="E41" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G41">
         <v>27</v>
@@ -26768,7 +30181,7 @@
         <v>144.7204682</v>
       </c>
       <c r="E42" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G42">
         <v>128</v>
@@ -26794,7 +30207,7 @@
         <v>144.70612249999999</v>
       </c>
       <c r="E43" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G43">
         <v>424</v>
@@ -26820,7 +30233,7 @@
         <v>144.71273160000001</v>
       </c>
       <c r="E44" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G44">
         <v>65</v>
@@ -26846,7 +30259,7 @@
         <v>144.7274098</v>
       </c>
       <c r="E45" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G45">
         <v>66</v>
@@ -26872,10 +30285,10 @@
         <v>144.72214529999999</v>
       </c>
       <c r="E46" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F46" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="G46">
         <v>343</v>
@@ -26893,7 +30306,7 @@
         <v>0.54652777777777783</v>
       </c>
       <c r="L46" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -26910,7 +30323,7 @@
         <v>144.72045929999999</v>
       </c>
       <c r="E47" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G47">
         <v>116</v>
@@ -26936,7 +30349,10 @@
         <v>144.70503930000001</v>
       </c>
       <c r="E48" t="s">
-        <v>70</v>
+        <v>80</v>
+      </c>
+      <c r="F48" t="s">
+        <v>78</v>
       </c>
       <c r="G48">
         <v>15</v>
@@ -26947,6 +30363,15 @@
       <c r="I48">
         <v>1099</v>
       </c>
+      <c r="J48" s="1">
+        <v>44750</v>
+      </c>
+      <c r="K48" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="L48" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
@@ -26962,7 +30387,7 @@
         <v>144.70532040000001</v>
       </c>
       <c r="E49" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G49">
         <v>343</v>
@@ -26988,10 +30413,10 @@
         <v>144.71836010000001</v>
       </c>
       <c r="E50" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F50" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G50">
         <v>38</v>
@@ -27009,7 +30434,7 @@
         <v>0.55277777777777781</v>
       </c>
       <c r="L50" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -27026,10 +30451,10 @@
         <v>144.72770560000001</v>
       </c>
       <c r="E51" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F51" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G51">
         <v>163</v>
@@ -27047,7 +30472,7 @@
         <v>0.59375</v>
       </c>
       <c r="L51" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -27064,7 +30489,7 @@
         <v>144.70573479999999</v>
       </c>
       <c r="E52" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G52">
         <v>774</v>
@@ -27090,7 +30515,7 @@
         <v>144.71108520000001</v>
       </c>
       <c r="E53" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G53">
         <v>241</v>
@@ -27116,10 +30541,10 @@
         <v>144.721926</v>
       </c>
       <c r="E54" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F54" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="G54">
         <v>213</v>
@@ -27137,7 +30562,7 @@
         <v>0.60902777777777783</v>
       </c>
       <c r="L54" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -27154,7 +30579,10 @@
         <v>144.70763640000001</v>
       </c>
       <c r="E55" t="s">
-        <v>70</v>
+        <v>80</v>
+      </c>
+      <c r="F55" t="s">
+        <v>78</v>
       </c>
       <c r="G55">
         <v>39</v>
@@ -27165,6 +30593,15 @@
       <c r="I55">
         <v>756</v>
       </c>
+      <c r="J55" s="1">
+        <v>44750</v>
+      </c>
+      <c r="K55" s="2">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="L55" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
@@ -27180,10 +30617,10 @@
         <v>144.71196230000001</v>
       </c>
       <c r="E56" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F56" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G56">
         <v>134</v>
@@ -27201,7 +30638,7 @@
         <v>0.4861111111111111</v>
       </c>
       <c r="L56" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -27218,10 +30655,10 @@
         <v>144.7119108</v>
       </c>
       <c r="E57" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F57" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G57">
         <v>270</v>
@@ -27239,7 +30676,7 @@
         <v>0.53819444444444442</v>
       </c>
       <c r="L57" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -27256,7 +30693,7 @@
         <v>144.7064048</v>
       </c>
       <c r="E58" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G58">
         <v>733</v>
@@ -27282,7 +30719,7 @@
         <v>144.72554170000001</v>
       </c>
       <c r="E59" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -27308,7 +30745,7 @@
         <v>144.71766289999999</v>
       </c>
       <c r="E60" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G60">
         <v>173</v>
@@ -27334,7 +30771,7 @@
         <v>144.70517090000001</v>
       </c>
       <c r="E61" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G61">
         <v>235</v>
@@ -27360,7 +30797,7 @@
         <v>144.65376019999999</v>
       </c>
       <c r="E62" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G62">
         <v>363</v>
@@ -27386,7 +30823,7 @@
         <v>144.65231420000001</v>
       </c>
       <c r="E63" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G63">
         <v>330</v>
@@ -27412,7 +30849,7 @@
         <v>144.65679710000001</v>
       </c>
       <c r="E64" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G64">
         <v>79</v>
@@ -27438,10 +30875,10 @@
         <v>144.65331459999999</v>
       </c>
       <c r="E65" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F65" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G65">
         <v>21</v>
@@ -27459,7 +30896,7 @@
         <v>0.52777777777777779</v>
       </c>
       <c r="L65" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -27476,7 +30913,7 @@
         <v>144.66197790000001</v>
       </c>
       <c r="E66" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G66">
         <v>139</v>
@@ -27502,7 +30939,7 @@
         <v>144.65065720000001</v>
       </c>
       <c r="E67" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G67">
         <v>288</v>
@@ -27528,7 +30965,7 @@
         <v>144.648663</v>
       </c>
       <c r="E68" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G68">
         <v>278</v>
@@ -27554,7 +30991,7 @@
         <v>144.6492896</v>
       </c>
       <c r="E69" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G69">
         <v>10</v>
@@ -27580,10 +31017,10 @@
         <v>144.65917379999999</v>
       </c>
       <c r="E70" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F70" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G70">
         <v>134</v>
@@ -27601,7 +31038,7 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="L70" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -27618,7 +31055,7 @@
         <v>144.6504104</v>
       </c>
       <c r="E71" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G71">
         <v>458</v>
@@ -27644,7 +31081,7 @@
         <v>144.6530903</v>
       </c>
       <c r="E72" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G72">
         <v>379</v>
@@ -27670,7 +31107,7 @@
         <v>144.65842470000001</v>
       </c>
       <c r="E73" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G73">
         <v>257</v>
@@ -27696,7 +31133,7 @@
         <v>144.65490729999999</v>
       </c>
       <c r="E74" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G74">
         <v>84</v>
@@ -27722,7 +31159,7 @@
         <v>144.6489393</v>
       </c>
       <c r="E75" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G75">
         <v>280</v>
@@ -27748,10 +31185,10 @@
         <v>144.66008529999999</v>
       </c>
       <c r="E76" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F76" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="G76">
         <v>225</v>
@@ -27769,7 +31206,7 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="L76" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -27786,7 +31223,7 @@
         <v>144.6525279</v>
       </c>
       <c r="E77" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G77">
         <v>413</v>
@@ -27812,7 +31249,7 @@
         <v>144.65210780000001</v>
       </c>
       <c r="E78" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G78">
         <v>297</v>
@@ -27838,7 +31275,7 @@
         <v>144.65020699999999</v>
       </c>
       <c r="E79" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G79">
         <v>204</v>
@@ -27864,10 +31301,10 @@
         <v>144.6558331</v>
       </c>
       <c r="E80" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F80" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G80">
         <v>118</v>
@@ -27885,7 +31322,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="L80" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -27902,7 +31339,7 @@
         <v>144.64982879999999</v>
       </c>
       <c r="E81" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G81">
         <v>85</v>
@@ -27928,7 +31365,7 @@
         <v>144.65695629999999</v>
       </c>
       <c r="E82" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G82">
         <v>159</v>
@@ -27954,7 +31391,7 @@
         <v>144.6500685</v>
       </c>
       <c r="E83" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G83">
         <v>380</v>
@@ -27980,7 +31417,7 @@
         <v>144.65723170000001</v>
       </c>
       <c r="E84" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G84">
         <v>109</v>
@@ -28006,7 +31443,7 @@
         <v>144.6527748</v>
       </c>
       <c r="E85" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G85">
         <v>208</v>
@@ -28032,10 +31469,10 @@
         <v>144.65882999999999</v>
       </c>
       <c r="E86" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F86" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G86">
         <v>12</v>
@@ -28053,7 +31490,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="L86" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -28070,7 +31507,7 @@
         <v>144.64879049999999</v>
       </c>
       <c r="E87" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G87">
         <v>303</v>
@@ -28096,7 +31533,7 @@
         <v>144.64905730000001</v>
       </c>
       <c r="E88" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G88">
         <v>274</v>
@@ -28122,7 +31559,7 @@
         <v>144.6499839</v>
       </c>
       <c r="E89" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G89">
         <v>426</v>
@@ -28148,7 +31585,7 @@
         <v>144.64965359999999</v>
       </c>
       <c r="E90" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G90">
         <v>62</v>
@@ -28174,7 +31611,7 @@
         <v>144.65195750000001</v>
       </c>
       <c r="E91" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G91">
         <v>41</v>
@@ -28200,7 +31637,7 @@
         <v>144.65127910000001</v>
       </c>
       <c r="E92" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G92">
         <v>557</v>
@@ -28226,7 +31663,7 @@
         <v>144.66041139999999</v>
       </c>
       <c r="E93" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G93">
         <v>11</v>
@@ -28252,7 +31689,7 @@
         <v>144.6513673</v>
       </c>
       <c r="E94" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G94">
         <v>96</v>
@@ -28278,7 +31715,7 @@
         <v>144.66056219999999</v>
       </c>
       <c r="E95" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G95">
         <v>9</v>
@@ -28304,10 +31741,10 @@
         <v>144.65643789999999</v>
       </c>
       <c r="E96" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F96" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="G96">
         <v>238</v>
@@ -28325,7 +31762,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="L96" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -28342,7 +31779,7 @@
         <v>144.65854830000001</v>
       </c>
       <c r="E97" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G97">
         <v>169</v>
@@ -28368,7 +31805,7 @@
         <v>144.65123120000001</v>
       </c>
       <c r="E98" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G98">
         <v>345</v>
@@ -28394,7 +31831,7 @@
         <v>144.65058450000001</v>
       </c>
       <c r="E99" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G99">
         <v>434</v>
@@ -28420,7 +31857,7 @@
         <v>144.6579203</v>
       </c>
       <c r="E100" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G100">
         <v>23</v>
@@ -28446,7 +31883,7 @@
         <v>144.65811500000001</v>
       </c>
       <c r="E101" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G101">
         <v>20</v>
@@ -28472,7 +31909,7 @@
         <v>144.65157450000001</v>
       </c>
       <c r="E102" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G102">
         <v>474</v>
@@ -28498,10 +31935,10 @@
         <v>144.65593530000001</v>
       </c>
       <c r="E103" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F103" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="G103">
         <v>204</v>
@@ -28519,7 +31956,7 @@
         <v>0.4375</v>
       </c>
       <c r="L103" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -28536,7 +31973,7 @@
         <v>144.64990299999999</v>
       </c>
       <c r="E104" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G104">
         <v>400</v>
@@ -28562,7 +31999,7 @@
         <v>144.6500226</v>
       </c>
       <c r="E105" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G105">
         <v>274</v>
@@ -28588,7 +32025,7 @@
         <v>144.64654820000001</v>
       </c>
       <c r="E106" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G106">
         <v>22</v>
@@ -28614,7 +32051,7 @@
         <v>144.65129930000001</v>
       </c>
       <c r="E107" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G107">
         <v>597</v>
@@ -28640,7 +32077,7 @@
         <v>144.64988700000001</v>
       </c>
       <c r="E108" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G108">
         <v>385</v>
@@ -28666,7 +32103,7 @@
         <v>144.6608583</v>
       </c>
       <c r="E109" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G109">
         <v>113</v>
@@ -28692,7 +32129,7 @@
         <v>144.6609053</v>
       </c>
       <c r="E110" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G110">
         <v>43</v>
@@ -28718,7 +32155,7 @@
         <v>144.66058390000001</v>
       </c>
       <c r="E111" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G111">
         <v>4</v>
@@ -28744,7 +32181,7 @@
         <v>144.65182820000001</v>
       </c>
       <c r="E112" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G112">
         <v>472</v>
@@ -28770,7 +32207,7 @@
         <v>144.6481373</v>
       </c>
       <c r="E113" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G113">
         <v>215</v>
@@ -28796,7 +32233,7 @@
         <v>144.6499512</v>
       </c>
       <c r="E114" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G114">
         <v>91</v>
@@ -28822,7 +32259,7 @@
         <v>144.6579074</v>
       </c>
       <c r="E115" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G115">
         <v>15</v>
@@ -28848,10 +32285,10 @@
         <v>144.66080489999999</v>
       </c>
       <c r="E116" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F116" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="G116">
         <v>303</v>
@@ -28869,7 +32306,7 @@
         <v>0.53472222222222221</v>
       </c>
       <c r="L116" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -28886,7 +32323,7 @@
         <v>144.65153480000001</v>
       </c>
       <c r="E117" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G117">
         <v>325</v>
@@ -28912,7 +32349,7 @@
         <v>144.64725390000001</v>
       </c>
       <c r="E118" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G118">
         <v>95</v>
@@ -28938,7 +32375,7 @@
         <v>144.66168139999999</v>
       </c>
       <c r="E119" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G119">
         <v>113</v>
@@ -28964,7 +32401,7 @@
         <v>144.6508288</v>
       </c>
       <c r="E120" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G120">
         <v>157</v>
@@ -28990,7 +32427,7 @@
         <v>144.64933210000001</v>
       </c>
       <c r="E121" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G121">
         <v>104</v>
@@ -29022,26 +32459,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="150" customHeight="1">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/data/2022 Field Data - Revisiting Amesbury et al. (1999).xlsx
+++ b/data/2022 Field Data - Revisiting Amesbury et al. (1999).xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25506"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC08406E-2951-4538-8BCF-7094D959B8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A223E7F3-9AA7-4326-9DAA-C53AD66BA10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2279" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2566" uniqueCount="94">
   <si>
     <t>date</t>
   </si>
@@ -296,10 +296,10 @@
     <t>rubble</t>
   </si>
   <si>
-    <t>Author(s):</t>
+    <t>Marisa Agarwal</t>
   </si>
   <si>
-    <t>Marisa Agarwal</t>
+    <t>Author(s):</t>
   </si>
   <si>
     <t>Title:</t>
@@ -688,11 +688,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1041"/>
+  <dimension ref="A1:I1201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1037" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A923" sqref="A923:A1041"/>
+      <pane ySplit="1" topLeftCell="A1199" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1123" sqref="A1123:A1201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28683,6 +28683,4154 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1042" spans="1:9">
+      <c r="A1042" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1042">
+        <v>44</v>
+      </c>
+      <c r="D1042">
+        <v>3</v>
+      </c>
+      <c r="E1042">
+        <v>1</v>
+      </c>
+      <c r="F1042" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1042">
+        <v>26</v>
+      </c>
+      <c r="H1042">
+        <v>2.5</v>
+      </c>
+      <c r="I1042">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:9">
+      <c r="A1043" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1043">
+        <v>44</v>
+      </c>
+      <c r="D1043">
+        <v>3</v>
+      </c>
+      <c r="E1043">
+        <v>2</v>
+      </c>
+      <c r="F1043" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1043">
+        <v>31</v>
+      </c>
+      <c r="H1043">
+        <v>1</v>
+      </c>
+      <c r="I1043">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:9">
+      <c r="A1044" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1044">
+        <v>44</v>
+      </c>
+      <c r="D1044">
+        <v>3</v>
+      </c>
+      <c r="E1044">
+        <v>3</v>
+      </c>
+      <c r="F1044" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1044">
+        <v>16</v>
+      </c>
+      <c r="H1044">
+        <v>8</v>
+      </c>
+      <c r="I1044">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:9">
+      <c r="A1045" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1045">
+        <v>44</v>
+      </c>
+      <c r="D1045">
+        <v>3</v>
+      </c>
+      <c r="E1045">
+        <v>4</v>
+      </c>
+      <c r="F1045" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1045">
+        <v>44</v>
+      </c>
+      <c r="H1045">
+        <v>4</v>
+      </c>
+      <c r="I1045">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:9">
+      <c r="A1046" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1046">
+        <v>44</v>
+      </c>
+      <c r="D1046">
+        <v>7</v>
+      </c>
+      <c r="E1046">
+        <v>1</v>
+      </c>
+      <c r="F1046" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1046">
+        <v>22</v>
+      </c>
+      <c r="H1046">
+        <v>10</v>
+      </c>
+      <c r="I1046">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:9">
+      <c r="A1047" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1047">
+        <v>44</v>
+      </c>
+      <c r="D1047">
+        <v>7</v>
+      </c>
+      <c r="E1047">
+        <v>2</v>
+      </c>
+      <c r="F1047" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1047">
+        <v>54</v>
+      </c>
+      <c r="H1047">
+        <v>2</v>
+      </c>
+      <c r="I1047">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:9">
+      <c r="A1048" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1048">
+        <v>44</v>
+      </c>
+      <c r="D1048">
+        <v>7</v>
+      </c>
+      <c r="E1048">
+        <v>3</v>
+      </c>
+      <c r="F1048" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1048">
+        <v>102</v>
+      </c>
+      <c r="H1048">
+        <v>4</v>
+      </c>
+      <c r="I1048">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:9">
+      <c r="A1049" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1049">
+        <v>44</v>
+      </c>
+      <c r="D1049">
+        <v>7</v>
+      </c>
+      <c r="E1049">
+        <v>4</v>
+      </c>
+      <c r="F1049" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1049">
+        <v>30</v>
+      </c>
+      <c r="H1049">
+        <v>5</v>
+      </c>
+      <c r="I1049">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:9">
+      <c r="A1050" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1050">
+        <v>44</v>
+      </c>
+      <c r="D1050">
+        <v>11</v>
+      </c>
+      <c r="E1050">
+        <v>1</v>
+      </c>
+      <c r="F1050" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1050">
+        <v>29</v>
+      </c>
+      <c r="H1050">
+        <v>3</v>
+      </c>
+      <c r="I1050">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:9">
+      <c r="A1051" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1051">
+        <v>44</v>
+      </c>
+      <c r="D1051">
+        <v>11</v>
+      </c>
+      <c r="E1051">
+        <v>2</v>
+      </c>
+      <c r="F1051" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1051">
+        <v>41</v>
+      </c>
+      <c r="H1051">
+        <v>3</v>
+      </c>
+      <c r="I1051">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:9">
+      <c r="A1052" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1052">
+        <v>44</v>
+      </c>
+      <c r="D1052">
+        <v>11</v>
+      </c>
+      <c r="E1052">
+        <v>3</v>
+      </c>
+      <c r="F1052" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1052">
+        <v>63</v>
+      </c>
+      <c r="H1052">
+        <v>5</v>
+      </c>
+      <c r="I1052">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:9">
+      <c r="A1053" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1053">
+        <v>44</v>
+      </c>
+      <c r="D1053">
+        <v>11</v>
+      </c>
+      <c r="E1053">
+        <v>4</v>
+      </c>
+      <c r="F1053" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1053">
+        <v>20</v>
+      </c>
+      <c r="H1053">
+        <v>1</v>
+      </c>
+      <c r="I1053">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:9">
+      <c r="A1054" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1054">
+        <v>44</v>
+      </c>
+      <c r="D1054">
+        <v>20</v>
+      </c>
+      <c r="E1054">
+        <v>1</v>
+      </c>
+      <c r="F1054" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1054">
+        <v>109</v>
+      </c>
+      <c r="H1054">
+        <v>3</v>
+      </c>
+      <c r="I1054">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:9">
+      <c r="A1055" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1055">
+        <v>44</v>
+      </c>
+      <c r="D1055">
+        <v>20</v>
+      </c>
+      <c r="E1055">
+        <v>2</v>
+      </c>
+      <c r="F1055" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1055">
+        <v>53</v>
+      </c>
+      <c r="H1055">
+        <v>7</v>
+      </c>
+      <c r="I1055">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:9">
+      <c r="A1056" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1056">
+        <v>44</v>
+      </c>
+      <c r="D1056">
+        <v>20</v>
+      </c>
+      <c r="E1056">
+        <v>3</v>
+      </c>
+      <c r="F1056" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1056">
+        <v>105</v>
+      </c>
+      <c r="H1056">
+        <v>1.5</v>
+      </c>
+      <c r="I1056">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:9">
+      <c r="A1057" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1057">
+        <v>44</v>
+      </c>
+      <c r="D1057">
+        <v>20</v>
+      </c>
+      <c r="E1057">
+        <v>4</v>
+      </c>
+      <c r="F1057" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1057">
+        <v>62</v>
+      </c>
+      <c r="H1057">
+        <v>1</v>
+      </c>
+      <c r="I1057">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:9">
+      <c r="A1058" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1058">
+        <v>44</v>
+      </c>
+      <c r="D1058">
+        <v>21</v>
+      </c>
+      <c r="E1058">
+        <v>1</v>
+      </c>
+      <c r="F1058" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1058">
+        <v>45</v>
+      </c>
+      <c r="H1058">
+        <v>2</v>
+      </c>
+      <c r="I1058">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:9">
+      <c r="A1059" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1059">
+        <v>44</v>
+      </c>
+      <c r="D1059">
+        <v>21</v>
+      </c>
+      <c r="E1059">
+        <v>2</v>
+      </c>
+      <c r="F1059" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1059">
+        <v>68</v>
+      </c>
+      <c r="H1059">
+        <v>4</v>
+      </c>
+      <c r="I1059">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:9">
+      <c r="A1060" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1060">
+        <v>44</v>
+      </c>
+      <c r="D1060">
+        <v>21</v>
+      </c>
+      <c r="E1060">
+        <v>3</v>
+      </c>
+      <c r="F1060" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1060">
+        <v>22</v>
+      </c>
+      <c r="H1060">
+        <v>0.5</v>
+      </c>
+      <c r="I1060">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:9">
+      <c r="A1061" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1061">
+        <v>44</v>
+      </c>
+      <c r="D1061">
+        <v>21</v>
+      </c>
+      <c r="E1061">
+        <v>4</v>
+      </c>
+      <c r="F1061" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1061">
+        <v>33</v>
+      </c>
+      <c r="H1061">
+        <v>4</v>
+      </c>
+      <c r="I1061">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:9">
+      <c r="A1062" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1062">
+        <v>44</v>
+      </c>
+      <c r="D1062">
+        <v>28</v>
+      </c>
+      <c r="E1062">
+        <v>1</v>
+      </c>
+      <c r="F1062" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1062">
+        <v>24</v>
+      </c>
+      <c r="H1062">
+        <v>8</v>
+      </c>
+      <c r="I1062">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:9">
+      <c r="A1063" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1063">
+        <v>44</v>
+      </c>
+      <c r="D1063">
+        <v>28</v>
+      </c>
+      <c r="E1063">
+        <v>2</v>
+      </c>
+      <c r="F1063" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1063">
+        <v>74</v>
+      </c>
+      <c r="H1063">
+        <v>3</v>
+      </c>
+      <c r="I1063">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:9">
+      <c r="A1064" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1064">
+        <v>44</v>
+      </c>
+      <c r="D1064">
+        <v>28</v>
+      </c>
+      <c r="E1064">
+        <v>3</v>
+      </c>
+      <c r="F1064" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1064">
+        <v>79</v>
+      </c>
+      <c r="H1064">
+        <v>5</v>
+      </c>
+      <c r="I1064">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:9">
+      <c r="A1065" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1065">
+        <v>44</v>
+      </c>
+      <c r="D1065">
+        <v>28</v>
+      </c>
+      <c r="E1065">
+        <v>4</v>
+      </c>
+      <c r="F1065" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1065">
+        <v>20</v>
+      </c>
+      <c r="H1065">
+        <v>4.5</v>
+      </c>
+      <c r="I1065">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:9">
+      <c r="A1066" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1066">
+        <v>44</v>
+      </c>
+      <c r="D1066">
+        <v>33</v>
+      </c>
+      <c r="E1066">
+        <v>1</v>
+      </c>
+      <c r="F1066" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1066">
+        <v>52</v>
+      </c>
+      <c r="H1066">
+        <v>7</v>
+      </c>
+      <c r="I1066">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:9">
+      <c r="A1067" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1067">
+        <v>44</v>
+      </c>
+      <c r="D1067">
+        <v>33</v>
+      </c>
+      <c r="E1067">
+        <v>2</v>
+      </c>
+      <c r="F1067" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1067">
+        <v>54</v>
+      </c>
+      <c r="H1067">
+        <v>4</v>
+      </c>
+      <c r="I1067">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:9">
+      <c r="A1068" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1068">
+        <v>44</v>
+      </c>
+      <c r="D1068">
+        <v>33</v>
+      </c>
+      <c r="E1068">
+        <v>3</v>
+      </c>
+      <c r="F1068" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1068">
+        <v>60</v>
+      </c>
+      <c r="H1068">
+        <v>3</v>
+      </c>
+      <c r="I1068">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:9">
+      <c r="A1069" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1069">
+        <v>44</v>
+      </c>
+      <c r="D1069">
+        <v>33</v>
+      </c>
+      <c r="E1069">
+        <v>4</v>
+      </c>
+      <c r="F1069" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1069">
+        <v>60</v>
+      </c>
+      <c r="H1069">
+        <v>5</v>
+      </c>
+      <c r="I1069">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:9">
+      <c r="A1070" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1070">
+        <v>44</v>
+      </c>
+      <c r="D1070">
+        <v>37</v>
+      </c>
+      <c r="E1070">
+        <v>1</v>
+      </c>
+      <c r="F1070" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1070">
+        <v>29</v>
+      </c>
+      <c r="H1070">
+        <v>12</v>
+      </c>
+      <c r="I1070">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:9">
+      <c r="A1071" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1071">
+        <v>44</v>
+      </c>
+      <c r="D1071">
+        <v>37</v>
+      </c>
+      <c r="E1071">
+        <v>2</v>
+      </c>
+      <c r="F1071" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1071">
+        <v>10</v>
+      </c>
+      <c r="H1071">
+        <v>2</v>
+      </c>
+      <c r="I1071">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:9">
+      <c r="A1072" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1072">
+        <v>44</v>
+      </c>
+      <c r="D1072">
+        <v>37</v>
+      </c>
+      <c r="E1072">
+        <v>3</v>
+      </c>
+      <c r="F1072" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1072">
+        <v>104</v>
+      </c>
+      <c r="H1072">
+        <v>14</v>
+      </c>
+      <c r="I1072">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:9">
+      <c r="A1073" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1073">
+        <v>44</v>
+      </c>
+      <c r="D1073">
+        <v>37</v>
+      </c>
+      <c r="E1073">
+        <v>4</v>
+      </c>
+      <c r="F1073" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1073">
+        <v>130</v>
+      </c>
+      <c r="H1073">
+        <v>0.5</v>
+      </c>
+      <c r="I1073">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:9">
+      <c r="A1074" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1074">
+        <v>44</v>
+      </c>
+      <c r="D1074">
+        <v>48</v>
+      </c>
+      <c r="E1074">
+        <v>1</v>
+      </c>
+      <c r="F1074" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1074">
+        <v>34</v>
+      </c>
+      <c r="H1074">
+        <v>5</v>
+      </c>
+      <c r="I1074">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:9">
+      <c r="A1075" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1075">
+        <v>44</v>
+      </c>
+      <c r="D1075">
+        <v>48</v>
+      </c>
+      <c r="E1075">
+        <v>2</v>
+      </c>
+      <c r="F1075" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1075">
+        <v>10</v>
+      </c>
+      <c r="H1075">
+        <v>3.5</v>
+      </c>
+      <c r="I1075">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:9">
+      <c r="A1076" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1076">
+        <v>44</v>
+      </c>
+      <c r="D1076">
+        <v>48</v>
+      </c>
+      <c r="E1076">
+        <v>3</v>
+      </c>
+      <c r="F1076" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1076">
+        <v>21</v>
+      </c>
+      <c r="H1076">
+        <v>15</v>
+      </c>
+      <c r="I1076">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:9">
+      <c r="A1077" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1077">
+        <v>44</v>
+      </c>
+      <c r="D1077">
+        <v>48</v>
+      </c>
+      <c r="E1077">
+        <v>4</v>
+      </c>
+      <c r="F1077" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1077">
+        <v>57</v>
+      </c>
+      <c r="H1077">
+        <v>3</v>
+      </c>
+      <c r="I1077">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:9">
+      <c r="A1078" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1078">
+        <v>44</v>
+      </c>
+      <c r="D1078">
+        <v>49</v>
+      </c>
+      <c r="E1078">
+        <v>1</v>
+      </c>
+      <c r="F1078" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1078">
+        <v>52</v>
+      </c>
+      <c r="H1078">
+        <v>6</v>
+      </c>
+      <c r="I1078">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:9">
+      <c r="A1079" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1079">
+        <v>44</v>
+      </c>
+      <c r="D1079">
+        <v>49</v>
+      </c>
+      <c r="E1079">
+        <v>2</v>
+      </c>
+      <c r="F1079" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1079">
+        <v>72</v>
+      </c>
+      <c r="H1079">
+        <v>3</v>
+      </c>
+      <c r="I1079">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:9">
+      <c r="A1080" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1080">
+        <v>44</v>
+      </c>
+      <c r="D1080">
+        <v>49</v>
+      </c>
+      <c r="E1080">
+        <v>3</v>
+      </c>
+      <c r="F1080" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1080">
+        <v>43</v>
+      </c>
+      <c r="H1080">
+        <v>0.5</v>
+      </c>
+      <c r="I1080">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:9">
+      <c r="A1081" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1081">
+        <v>44</v>
+      </c>
+      <c r="D1081">
+        <v>49</v>
+      </c>
+      <c r="E1081">
+        <v>4</v>
+      </c>
+      <c r="F1081" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1081">
+        <v>114</v>
+      </c>
+      <c r="H1081">
+        <v>3</v>
+      </c>
+      <c r="I1081">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:9">
+      <c r="A1082" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1082">
+        <v>56</v>
+      </c>
+      <c r="D1082">
+        <v>0</v>
+      </c>
+      <c r="E1082">
+        <v>1</v>
+      </c>
+      <c r="F1082" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1082">
+        <v>31</v>
+      </c>
+      <c r="H1082">
+        <v>1</v>
+      </c>
+      <c r="I1082">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:9">
+      <c r="A1083" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1083">
+        <v>56</v>
+      </c>
+      <c r="D1083">
+        <v>0</v>
+      </c>
+      <c r="E1083">
+        <v>2</v>
+      </c>
+      <c r="F1083" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1083">
+        <v>22</v>
+      </c>
+      <c r="H1083">
+        <v>7</v>
+      </c>
+      <c r="I1083">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:9">
+      <c r="A1084" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1084">
+        <v>56</v>
+      </c>
+      <c r="D1084">
+        <v>0</v>
+      </c>
+      <c r="E1084">
+        <v>3</v>
+      </c>
+      <c r="F1084" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1084">
+        <v>21</v>
+      </c>
+      <c r="H1084">
+        <v>3</v>
+      </c>
+      <c r="I1084">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:9">
+      <c r="A1085" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1085">
+        <v>56</v>
+      </c>
+      <c r="D1085">
+        <v>0</v>
+      </c>
+      <c r="E1085">
+        <v>4</v>
+      </c>
+      <c r="F1085" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1085">
+        <v>22</v>
+      </c>
+      <c r="H1085">
+        <v>6</v>
+      </c>
+      <c r="I1085">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:9">
+      <c r="A1086" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1086">
+        <v>56</v>
+      </c>
+      <c r="D1086">
+        <v>1</v>
+      </c>
+      <c r="E1086">
+        <v>1</v>
+      </c>
+      <c r="F1086" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1086">
+        <v>21</v>
+      </c>
+      <c r="H1086">
+        <v>5</v>
+      </c>
+      <c r="I1086">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:9">
+      <c r="A1087" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1087">
+        <v>56</v>
+      </c>
+      <c r="D1087">
+        <v>1</v>
+      </c>
+      <c r="E1087">
+        <v>2</v>
+      </c>
+      <c r="F1087" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1087">
+        <v>56</v>
+      </c>
+      <c r="H1087">
+        <v>16</v>
+      </c>
+      <c r="I1087">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:9">
+      <c r="A1088" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1088">
+        <v>56</v>
+      </c>
+      <c r="D1088">
+        <v>1</v>
+      </c>
+      <c r="E1088">
+        <v>3</v>
+      </c>
+      <c r="F1088" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1088">
+        <v>34</v>
+      </c>
+      <c r="H1088">
+        <v>10</v>
+      </c>
+      <c r="I1088">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:9">
+      <c r="A1089" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1089">
+        <v>56</v>
+      </c>
+      <c r="D1089">
+        <v>1</v>
+      </c>
+      <c r="E1089">
+        <v>4</v>
+      </c>
+      <c r="F1089" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1089">
+        <v>17</v>
+      </c>
+      <c r="H1089">
+        <v>1</v>
+      </c>
+      <c r="I1089">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:9">
+      <c r="A1090" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1090">
+        <v>56</v>
+      </c>
+      <c r="D1090">
+        <v>8</v>
+      </c>
+      <c r="E1090">
+        <v>1</v>
+      </c>
+      <c r="F1090" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1090">
+        <v>68</v>
+      </c>
+      <c r="H1090">
+        <v>2.5</v>
+      </c>
+      <c r="I1090">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:9">
+      <c r="A1091" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1091">
+        <v>56</v>
+      </c>
+      <c r="D1091">
+        <v>8</v>
+      </c>
+      <c r="E1091">
+        <v>2</v>
+      </c>
+      <c r="F1091" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1091">
+        <v>6</v>
+      </c>
+      <c r="H1091">
+        <v>67</v>
+      </c>
+      <c r="I1091">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:9">
+      <c r="A1092" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1092">
+        <v>56</v>
+      </c>
+      <c r="D1092">
+        <v>8</v>
+      </c>
+      <c r="E1092">
+        <v>3</v>
+      </c>
+      <c r="F1092" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1092">
+        <v>109</v>
+      </c>
+      <c r="H1092">
+        <v>8.5</v>
+      </c>
+      <c r="I1092">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:9">
+      <c r="A1093" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1093">
+        <v>56</v>
+      </c>
+      <c r="D1093">
+        <v>8</v>
+      </c>
+      <c r="E1093">
+        <v>4</v>
+      </c>
+      <c r="F1093" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1093">
+        <v>68</v>
+      </c>
+      <c r="H1093">
+        <v>40</v>
+      </c>
+      <c r="I1093">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:9">
+      <c r="A1094" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1094">
+        <v>56</v>
+      </c>
+      <c r="D1094">
+        <v>9</v>
+      </c>
+      <c r="E1094">
+        <v>1</v>
+      </c>
+      <c r="F1094" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1094">
+        <v>55</v>
+      </c>
+      <c r="H1094">
+        <v>1</v>
+      </c>
+      <c r="I1094">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:9">
+      <c r="A1095" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1095">
+        <v>56</v>
+      </c>
+      <c r="D1095">
+        <v>9</v>
+      </c>
+      <c r="E1095">
+        <v>2</v>
+      </c>
+      <c r="F1095" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1095">
+        <v>75</v>
+      </c>
+      <c r="H1095">
+        <v>5</v>
+      </c>
+      <c r="I1095">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:9">
+      <c r="A1096" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1096">
+        <v>56</v>
+      </c>
+      <c r="D1096">
+        <v>9</v>
+      </c>
+      <c r="E1096">
+        <v>3</v>
+      </c>
+      <c r="F1096" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1096">
+        <v>49</v>
+      </c>
+      <c r="H1096">
+        <v>1.5</v>
+      </c>
+      <c r="I1096">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:9">
+      <c r="A1097" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1097">
+        <v>56</v>
+      </c>
+      <c r="D1097">
+        <v>9</v>
+      </c>
+      <c r="E1097">
+        <v>4</v>
+      </c>
+      <c r="F1097" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1097">
+        <v>34</v>
+      </c>
+      <c r="H1097">
+        <v>3</v>
+      </c>
+      <c r="I1097">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:9">
+      <c r="A1098" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1098">
+        <v>56</v>
+      </c>
+      <c r="D1098">
+        <v>15</v>
+      </c>
+      <c r="E1098">
+        <v>1</v>
+      </c>
+      <c r="F1098" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1098">
+        <v>48</v>
+      </c>
+      <c r="H1098">
+        <v>1</v>
+      </c>
+      <c r="I1098">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:9">
+      <c r="A1099" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1099">
+        <v>56</v>
+      </c>
+      <c r="D1099">
+        <v>15</v>
+      </c>
+      <c r="E1099">
+        <v>2</v>
+      </c>
+      <c r="F1099" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1099">
+        <v>47.5</v>
+      </c>
+      <c r="H1099">
+        <v>0.5</v>
+      </c>
+      <c r="I1099">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:9">
+      <c r="A1100" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1100">
+        <v>56</v>
+      </c>
+      <c r="D1100">
+        <v>15</v>
+      </c>
+      <c r="E1100">
+        <v>3</v>
+      </c>
+      <c r="F1100" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1100">
+        <v>38</v>
+      </c>
+      <c r="H1100">
+        <v>5</v>
+      </c>
+      <c r="I1100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:9">
+      <c r="A1101" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1101">
+        <v>56</v>
+      </c>
+      <c r="D1101">
+        <v>15</v>
+      </c>
+      <c r="E1101">
+        <v>4</v>
+      </c>
+      <c r="F1101" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1101">
+        <v>40</v>
+      </c>
+      <c r="H1101">
+        <v>9</v>
+      </c>
+      <c r="I1101">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:9">
+      <c r="A1102" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1102">
+        <v>56</v>
+      </c>
+      <c r="D1102">
+        <v>16</v>
+      </c>
+      <c r="E1102">
+        <v>1</v>
+      </c>
+      <c r="F1102" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1102">
+        <v>12</v>
+      </c>
+      <c r="H1102">
+        <v>2</v>
+      </c>
+      <c r="I1102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:9">
+      <c r="A1103" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1103">
+        <v>56</v>
+      </c>
+      <c r="D1103">
+        <v>16</v>
+      </c>
+      <c r="E1103">
+        <v>2</v>
+      </c>
+      <c r="F1103" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1103">
+        <v>70</v>
+      </c>
+      <c r="H1103">
+        <v>9</v>
+      </c>
+      <c r="I1103">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:9">
+      <c r="A1104" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1104">
+        <v>56</v>
+      </c>
+      <c r="D1104">
+        <v>16</v>
+      </c>
+      <c r="E1104">
+        <v>3</v>
+      </c>
+      <c r="F1104" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1104">
+        <v>36</v>
+      </c>
+      <c r="H1104">
+        <v>1</v>
+      </c>
+      <c r="I1104">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:9">
+      <c r="A1105" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1105">
+        <v>56</v>
+      </c>
+      <c r="D1105">
+        <v>16</v>
+      </c>
+      <c r="E1105">
+        <v>4</v>
+      </c>
+      <c r="F1105" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1105">
+        <v>63</v>
+      </c>
+      <c r="H1105">
+        <v>103</v>
+      </c>
+      <c r="I1105">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:9">
+      <c r="A1106" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1106">
+        <v>56</v>
+      </c>
+      <c r="D1106">
+        <v>28</v>
+      </c>
+      <c r="E1106">
+        <v>1</v>
+      </c>
+      <c r="F1106" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1106">
+        <v>25</v>
+      </c>
+      <c r="H1106">
+        <v>8</v>
+      </c>
+      <c r="I1106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:9">
+      <c r="A1107" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1107">
+        <v>56</v>
+      </c>
+      <c r="D1107">
+        <v>28</v>
+      </c>
+      <c r="E1107">
+        <v>2</v>
+      </c>
+      <c r="F1107" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1107">
+        <v>35</v>
+      </c>
+      <c r="H1107">
+        <v>1.5</v>
+      </c>
+      <c r="I1107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:9">
+      <c r="A1108" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1108">
+        <v>56</v>
+      </c>
+      <c r="D1108">
+        <v>28</v>
+      </c>
+      <c r="E1108">
+        <v>3</v>
+      </c>
+      <c r="F1108" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1108">
+        <v>20</v>
+      </c>
+      <c r="H1108">
+        <v>14</v>
+      </c>
+      <c r="I1108">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:9">
+      <c r="A1109" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1109">
+        <v>56</v>
+      </c>
+      <c r="D1109">
+        <v>28</v>
+      </c>
+      <c r="E1109">
+        <v>4</v>
+      </c>
+      <c r="F1109" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1109">
+        <v>20</v>
+      </c>
+      <c r="H1109">
+        <v>4</v>
+      </c>
+      <c r="I1109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:9">
+      <c r="A1110" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1110">
+        <v>56</v>
+      </c>
+      <c r="D1110">
+        <v>34</v>
+      </c>
+      <c r="E1110">
+        <v>1</v>
+      </c>
+      <c r="F1110" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1110">
+        <v>30</v>
+      </c>
+      <c r="H1110">
+        <v>2</v>
+      </c>
+      <c r="I1110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:9">
+      <c r="A1111" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1111">
+        <v>56</v>
+      </c>
+      <c r="D1111">
+        <v>34</v>
+      </c>
+      <c r="E1111">
+        <v>2</v>
+      </c>
+      <c r="F1111" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1111">
+        <v>84.5</v>
+      </c>
+      <c r="H1111">
+        <v>1</v>
+      </c>
+      <c r="I1111">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:9">
+      <c r="A1112" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1112">
+        <v>56</v>
+      </c>
+      <c r="D1112">
+        <v>34</v>
+      </c>
+      <c r="E1112">
+        <v>3</v>
+      </c>
+      <c r="F1112" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1112">
+        <v>45</v>
+      </c>
+      <c r="H1112">
+        <v>38</v>
+      </c>
+      <c r="I1112">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:9">
+      <c r="A1113" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1113">
+        <v>56</v>
+      </c>
+      <c r="D1113">
+        <v>34</v>
+      </c>
+      <c r="E1113">
+        <v>4</v>
+      </c>
+      <c r="F1113" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1113">
+        <v>72</v>
+      </c>
+      <c r="H1113">
+        <v>13</v>
+      </c>
+      <c r="I1113">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:9">
+      <c r="A1114" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1114">
+        <v>56</v>
+      </c>
+      <c r="D1114">
+        <v>39</v>
+      </c>
+      <c r="E1114">
+        <v>1</v>
+      </c>
+      <c r="F1114" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1114">
+        <v>42</v>
+      </c>
+      <c r="H1114">
+        <v>1</v>
+      </c>
+      <c r="I1114">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:9">
+      <c r="A1115" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1115">
+        <v>56</v>
+      </c>
+      <c r="D1115">
+        <v>39</v>
+      </c>
+      <c r="E1115">
+        <v>2</v>
+      </c>
+      <c r="F1115" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1115">
+        <v>59.5</v>
+      </c>
+      <c r="H1115">
+        <v>1.5</v>
+      </c>
+      <c r="I1115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:9">
+      <c r="A1116" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1116">
+        <v>56</v>
+      </c>
+      <c r="D1116">
+        <v>39</v>
+      </c>
+      <c r="E1116">
+        <v>3</v>
+      </c>
+      <c r="F1116" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1116">
+        <v>22</v>
+      </c>
+      <c r="H1116">
+        <v>1</v>
+      </c>
+      <c r="I1116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:9">
+      <c r="A1117" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1117">
+        <v>56</v>
+      </c>
+      <c r="D1117">
+        <v>39</v>
+      </c>
+      <c r="E1117">
+        <v>4</v>
+      </c>
+      <c r="F1117" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1117">
+        <v>54</v>
+      </c>
+      <c r="H1117">
+        <v>3</v>
+      </c>
+      <c r="I1117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:9">
+      <c r="A1118" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1118">
+        <v>56</v>
+      </c>
+      <c r="D1118">
+        <v>45</v>
+      </c>
+      <c r="E1118">
+        <v>1</v>
+      </c>
+      <c r="F1118" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1118">
+        <v>52</v>
+      </c>
+      <c r="H1118">
+        <v>2</v>
+      </c>
+      <c r="I1118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:9">
+      <c r="A1119" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1119">
+        <v>56</v>
+      </c>
+      <c r="D1119">
+        <v>45</v>
+      </c>
+      <c r="E1119">
+        <v>2</v>
+      </c>
+      <c r="F1119" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1119">
+        <v>65</v>
+      </c>
+      <c r="H1119">
+        <v>18</v>
+      </c>
+      <c r="I1119">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:9">
+      <c r="A1120" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1120">
+        <v>56</v>
+      </c>
+      <c r="D1120">
+        <v>45</v>
+      </c>
+      <c r="E1120">
+        <v>3</v>
+      </c>
+      <c r="F1120" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1120">
+        <v>87</v>
+      </c>
+      <c r="H1120">
+        <v>97</v>
+      </c>
+      <c r="I1120">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:9">
+      <c r="A1121" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1121">
+        <v>56</v>
+      </c>
+      <c r="D1121">
+        <v>45</v>
+      </c>
+      <c r="E1121">
+        <v>4</v>
+      </c>
+      <c r="F1121" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1121">
+        <v>82</v>
+      </c>
+      <c r="H1121">
+        <v>3</v>
+      </c>
+      <c r="I1121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:9">
+      <c r="A1122" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1122">
+        <v>42</v>
+      </c>
+      <c r="D1122">
+        <v>0</v>
+      </c>
+      <c r="E1122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:9">
+      <c r="A1123" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1123">
+        <v>42</v>
+      </c>
+      <c r="D1123">
+        <v>0</v>
+      </c>
+      <c r="E1123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:9">
+      <c r="A1124" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1124">
+        <v>42</v>
+      </c>
+      <c r="D1124">
+        <v>0</v>
+      </c>
+      <c r="E1124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:9">
+      <c r="A1125" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1125">
+        <v>42</v>
+      </c>
+      <c r="D1125">
+        <v>0</v>
+      </c>
+      <c r="E1125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:9">
+      <c r="A1126" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1126">
+        <v>42</v>
+      </c>
+      <c r="D1126">
+        <v>1</v>
+      </c>
+      <c r="E1126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:9">
+      <c r="A1127" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1127">
+        <v>42</v>
+      </c>
+      <c r="D1127">
+        <v>1</v>
+      </c>
+      <c r="E1127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:9">
+      <c r="A1128" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1128">
+        <v>42</v>
+      </c>
+      <c r="D1128">
+        <v>1</v>
+      </c>
+      <c r="E1128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:9">
+      <c r="A1129" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1129">
+        <v>42</v>
+      </c>
+      <c r="D1129">
+        <v>1</v>
+      </c>
+      <c r="E1129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:9">
+      <c r="A1130" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1130">
+        <v>42</v>
+      </c>
+      <c r="D1130">
+        <v>7</v>
+      </c>
+      <c r="E1130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:9">
+      <c r="A1131" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1131">
+        <v>42</v>
+      </c>
+      <c r="D1131">
+        <v>7</v>
+      </c>
+      <c r="E1131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:9">
+      <c r="A1132" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1132">
+        <v>42</v>
+      </c>
+      <c r="D1132">
+        <v>7</v>
+      </c>
+      <c r="E1132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:9">
+      <c r="A1133" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1133">
+        <v>42</v>
+      </c>
+      <c r="D1133">
+        <v>7</v>
+      </c>
+      <c r="E1133">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:9">
+      <c r="A1134" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1134">
+        <v>42</v>
+      </c>
+      <c r="D1134">
+        <v>11</v>
+      </c>
+      <c r="E1134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:9">
+      <c r="A1135" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1135">
+        <v>42</v>
+      </c>
+      <c r="D1135">
+        <v>11</v>
+      </c>
+      <c r="E1135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:9">
+      <c r="A1136" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1136">
+        <v>42</v>
+      </c>
+      <c r="D1136">
+        <v>11</v>
+      </c>
+      <c r="E1136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:5">
+      <c r="A1137" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1137">
+        <v>42</v>
+      </c>
+      <c r="D1137">
+        <v>11</v>
+      </c>
+      <c r="E1137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:5">
+      <c r="A1138" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1138">
+        <v>42</v>
+      </c>
+      <c r="D1138">
+        <v>22</v>
+      </c>
+      <c r="E1138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:5">
+      <c r="A1139" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1139">
+        <v>42</v>
+      </c>
+      <c r="D1139">
+        <v>22</v>
+      </c>
+      <c r="E1139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:5">
+      <c r="A1140" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1140">
+        <v>42</v>
+      </c>
+      <c r="D1140">
+        <v>22</v>
+      </c>
+      <c r="E1140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:5">
+      <c r="A1141" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1141">
+        <v>42</v>
+      </c>
+      <c r="D1141">
+        <v>22</v>
+      </c>
+      <c r="E1141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:5">
+      <c r="A1142" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1142">
+        <v>42</v>
+      </c>
+      <c r="D1142">
+        <v>23</v>
+      </c>
+      <c r="E1142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:5">
+      <c r="A1143" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1143">
+        <v>42</v>
+      </c>
+      <c r="D1143">
+        <v>23</v>
+      </c>
+      <c r="E1143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:5">
+      <c r="A1144" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1144">
+        <v>42</v>
+      </c>
+      <c r="D1144">
+        <v>23</v>
+      </c>
+      <c r="E1144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:5">
+      <c r="A1145" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1145">
+        <v>42</v>
+      </c>
+      <c r="D1145">
+        <v>23</v>
+      </c>
+      <c r="E1145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:5">
+      <c r="A1146" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1146">
+        <v>42</v>
+      </c>
+      <c r="D1146">
+        <v>26</v>
+      </c>
+      <c r="E1146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:5">
+      <c r="A1147" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1147">
+        <v>42</v>
+      </c>
+      <c r="D1147">
+        <v>26</v>
+      </c>
+      <c r="E1147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:5">
+      <c r="A1148" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1148">
+        <v>42</v>
+      </c>
+      <c r="D1148">
+        <v>26</v>
+      </c>
+      <c r="E1148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:5">
+      <c r="A1149" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1149">
+        <v>42</v>
+      </c>
+      <c r="D1149">
+        <v>26</v>
+      </c>
+      <c r="E1149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:5">
+      <c r="A1150" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1150">
+        <v>42</v>
+      </c>
+      <c r="D1150">
+        <v>32</v>
+      </c>
+      <c r="E1150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:5">
+      <c r="A1151" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1151">
+        <v>42</v>
+      </c>
+      <c r="D1151">
+        <v>32</v>
+      </c>
+      <c r="E1151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:5">
+      <c r="A1152" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1152">
+        <v>42</v>
+      </c>
+      <c r="D1152">
+        <v>32</v>
+      </c>
+      <c r="E1152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:9">
+      <c r="A1153" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1153">
+        <v>42</v>
+      </c>
+      <c r="D1153">
+        <v>32</v>
+      </c>
+      <c r="E1153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:9">
+      <c r="A1154" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1154">
+        <v>42</v>
+      </c>
+      <c r="D1154">
+        <v>45</v>
+      </c>
+      <c r="E1154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:9">
+      <c r="A1155" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1155">
+        <v>42</v>
+      </c>
+      <c r="D1155">
+        <v>45</v>
+      </c>
+      <c r="E1155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:9">
+      <c r="A1156" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1156">
+        <v>42</v>
+      </c>
+      <c r="D1156">
+        <v>45</v>
+      </c>
+      <c r="E1156">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:9">
+      <c r="A1157" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1157">
+        <v>42</v>
+      </c>
+      <c r="D1157">
+        <v>45</v>
+      </c>
+      <c r="E1157">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:9">
+      <c r="A1158" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1158">
+        <v>42</v>
+      </c>
+      <c r="D1158">
+        <v>48</v>
+      </c>
+      <c r="E1158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:9">
+      <c r="A1159" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1159">
+        <v>42</v>
+      </c>
+      <c r="D1159">
+        <v>48</v>
+      </c>
+      <c r="E1159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:9">
+      <c r="A1160" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1160">
+        <v>42</v>
+      </c>
+      <c r="D1160">
+        <v>48</v>
+      </c>
+      <c r="E1160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:9">
+      <c r="A1161" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1161">
+        <v>42</v>
+      </c>
+      <c r="D1161">
+        <v>48</v>
+      </c>
+      <c r="E1161">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:9">
+      <c r="A1162" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1162">
+        <v>51</v>
+      </c>
+      <c r="D1162">
+        <v>1</v>
+      </c>
+      <c r="E1162">
+        <v>1</v>
+      </c>
+      <c r="F1162" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1162">
+        <v>34</v>
+      </c>
+      <c r="H1162">
+        <v>2.5</v>
+      </c>
+      <c r="I1162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:9">
+      <c r="A1163" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1163">
+        <v>51</v>
+      </c>
+      <c r="D1163">
+        <v>1</v>
+      </c>
+      <c r="E1163">
+        <v>2</v>
+      </c>
+      <c r="F1163" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1163">
+        <v>32</v>
+      </c>
+      <c r="H1163">
+        <v>1.5</v>
+      </c>
+      <c r="I1163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:9">
+      <c r="A1164" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1164">
+        <v>51</v>
+      </c>
+      <c r="D1164">
+        <v>1</v>
+      </c>
+      <c r="E1164">
+        <v>3</v>
+      </c>
+      <c r="F1164" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1164">
+        <v>85</v>
+      </c>
+      <c r="H1164">
+        <v>5</v>
+      </c>
+      <c r="I1164">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:9">
+      <c r="A1165" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1165">
+        <v>51</v>
+      </c>
+      <c r="D1165">
+        <v>1</v>
+      </c>
+      <c r="E1165">
+        <v>4</v>
+      </c>
+      <c r="F1165" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1165">
+        <v>10</v>
+      </c>
+      <c r="H1165">
+        <v>1</v>
+      </c>
+      <c r="I1165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:9">
+      <c r="A1166" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1166">
+        <v>51</v>
+      </c>
+      <c r="D1166">
+        <v>5</v>
+      </c>
+      <c r="E1166">
+        <v>1</v>
+      </c>
+      <c r="F1166" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1166">
+        <v>69</v>
+      </c>
+      <c r="H1166">
+        <v>4</v>
+      </c>
+      <c r="I1166">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:9">
+      <c r="A1167" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1167">
+        <v>51</v>
+      </c>
+      <c r="D1167">
+        <v>5</v>
+      </c>
+      <c r="E1167">
+        <v>2</v>
+      </c>
+      <c r="F1167" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1167">
+        <v>138</v>
+      </c>
+      <c r="H1167">
+        <v>17</v>
+      </c>
+      <c r="I1167">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:9">
+      <c r="A1168" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1168">
+        <v>51</v>
+      </c>
+      <c r="D1168">
+        <v>5</v>
+      </c>
+      <c r="E1168">
+        <v>3</v>
+      </c>
+      <c r="F1168" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1168">
+        <v>116</v>
+      </c>
+      <c r="H1168">
+        <v>11</v>
+      </c>
+      <c r="I1168">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:9">
+      <c r="A1169" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1169">
+        <v>51</v>
+      </c>
+      <c r="D1169">
+        <v>5</v>
+      </c>
+      <c r="E1169">
+        <v>4</v>
+      </c>
+      <c r="F1169" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1169">
+        <v>79</v>
+      </c>
+      <c r="H1169">
+        <v>2</v>
+      </c>
+      <c r="I1169">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:9">
+      <c r="A1170" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1170">
+        <v>51</v>
+      </c>
+      <c r="D1170">
+        <v>7</v>
+      </c>
+      <c r="E1170">
+        <v>1</v>
+      </c>
+      <c r="F1170" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1170">
+        <v>17</v>
+      </c>
+      <c r="H1170">
+        <v>2.5</v>
+      </c>
+      <c r="I1170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:9">
+      <c r="A1171" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1171">
+        <v>51</v>
+      </c>
+      <c r="D1171">
+        <v>7</v>
+      </c>
+      <c r="E1171">
+        <v>2</v>
+      </c>
+      <c r="F1171" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1171">
+        <v>20</v>
+      </c>
+      <c r="H1171">
+        <v>1</v>
+      </c>
+      <c r="I1171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:9">
+      <c r="A1172" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1172">
+        <v>51</v>
+      </c>
+      <c r="D1172">
+        <v>7</v>
+      </c>
+      <c r="E1172">
+        <v>3</v>
+      </c>
+      <c r="F1172" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1172">
+        <v>88</v>
+      </c>
+      <c r="H1172">
+        <v>24</v>
+      </c>
+      <c r="I1172">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:9">
+      <c r="A1173" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1173">
+        <v>51</v>
+      </c>
+      <c r="D1173">
+        <v>7</v>
+      </c>
+      <c r="E1173">
+        <v>4</v>
+      </c>
+      <c r="F1173" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1173">
+        <v>31.5</v>
+      </c>
+      <c r="H1173">
+        <v>1.5</v>
+      </c>
+      <c r="I1173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:9">
+      <c r="A1174" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1174">
+        <v>51</v>
+      </c>
+      <c r="D1174">
+        <v>14</v>
+      </c>
+      <c r="E1174">
+        <v>1</v>
+      </c>
+      <c r="F1174" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1174">
+        <v>163</v>
+      </c>
+      <c r="H1174">
+        <v>1</v>
+      </c>
+      <c r="I1174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:9">
+      <c r="A1175" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1175">
+        <v>51</v>
+      </c>
+      <c r="D1175">
+        <v>14</v>
+      </c>
+      <c r="E1175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:9">
+      <c r="A1176" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1176">
+        <v>51</v>
+      </c>
+      <c r="D1176">
+        <v>14</v>
+      </c>
+      <c r="E1176">
+        <v>3</v>
+      </c>
+      <c r="F1176" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1176">
+        <v>113</v>
+      </c>
+      <c r="H1176">
+        <v>1.5</v>
+      </c>
+      <c r="I1176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:9">
+      <c r="A1177" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1177">
+        <v>51</v>
+      </c>
+      <c r="D1177">
+        <v>14</v>
+      </c>
+      <c r="E1177">
+        <v>4</v>
+      </c>
+      <c r="F1177" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1177">
+        <v>53</v>
+      </c>
+      <c r="H1177">
+        <v>0.5</v>
+      </c>
+      <c r="I1177">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:9">
+      <c r="A1178" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1178">
+        <v>51</v>
+      </c>
+      <c r="D1178">
+        <v>18</v>
+      </c>
+      <c r="E1178">
+        <v>1</v>
+      </c>
+      <c r="F1178" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1178">
+        <v>132</v>
+      </c>
+      <c r="H1178">
+        <v>3</v>
+      </c>
+      <c r="I1178">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:9">
+      <c r="A1179" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1179">
+        <v>51</v>
+      </c>
+      <c r="D1179">
+        <v>18</v>
+      </c>
+      <c r="E1179">
+        <v>2</v>
+      </c>
+      <c r="F1179" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1179">
+        <v>32</v>
+      </c>
+      <c r="H1179">
+        <v>0.5</v>
+      </c>
+      <c r="I1179">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:9">
+      <c r="A1180" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1180">
+        <v>51</v>
+      </c>
+      <c r="D1180">
+        <v>18</v>
+      </c>
+      <c r="E1180">
+        <v>3</v>
+      </c>
+      <c r="F1180" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1180">
+        <v>15</v>
+      </c>
+      <c r="H1180">
+        <v>1</v>
+      </c>
+      <c r="I1180">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:9">
+      <c r="A1181" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1181">
+        <v>51</v>
+      </c>
+      <c r="D1181">
+        <v>18</v>
+      </c>
+      <c r="E1181">
+        <v>4</v>
+      </c>
+      <c r="F1181" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1181">
+        <v>115</v>
+      </c>
+      <c r="H1181">
+        <v>2</v>
+      </c>
+      <c r="I1181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:9">
+      <c r="A1182" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1182">
+        <v>51</v>
+      </c>
+      <c r="D1182">
+        <v>20</v>
+      </c>
+      <c r="E1182">
+        <v>1</v>
+      </c>
+      <c r="F1182" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1182">
+        <v>19</v>
+      </c>
+      <c r="H1182">
+        <v>2</v>
+      </c>
+      <c r="I1182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:9">
+      <c r="A1183" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1183">
+        <v>51</v>
+      </c>
+      <c r="D1183">
+        <v>20</v>
+      </c>
+      <c r="E1183">
+        <v>2</v>
+      </c>
+      <c r="F1183" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1183">
+        <v>35</v>
+      </c>
+      <c r="H1183">
+        <v>3</v>
+      </c>
+      <c r="I1183">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:9">
+      <c r="A1184" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1184">
+        <v>51</v>
+      </c>
+      <c r="D1184">
+        <v>20</v>
+      </c>
+      <c r="E1184">
+        <v>3</v>
+      </c>
+      <c r="F1184" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1184">
+        <v>49</v>
+      </c>
+      <c r="H1184">
+        <v>4</v>
+      </c>
+      <c r="I1184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:9">
+      <c r="A1185" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1185">
+        <v>51</v>
+      </c>
+      <c r="D1185">
+        <v>20</v>
+      </c>
+      <c r="E1185">
+        <v>4</v>
+      </c>
+      <c r="F1185" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1185">
+        <v>75</v>
+      </c>
+      <c r="H1185">
+        <v>120</v>
+      </c>
+      <c r="I1185">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:9">
+      <c r="A1186" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1186">
+        <v>51</v>
+      </c>
+      <c r="D1186">
+        <v>34</v>
+      </c>
+      <c r="E1186">
+        <v>1</v>
+      </c>
+      <c r="F1186" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1186">
+        <v>6</v>
+      </c>
+      <c r="H1186">
+        <v>4</v>
+      </c>
+      <c r="I1186">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:9">
+      <c r="A1187" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1187">
+        <v>51</v>
+      </c>
+      <c r="D1187">
+        <v>34</v>
+      </c>
+      <c r="E1187">
+        <v>2</v>
+      </c>
+      <c r="F1187" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1187">
+        <v>20</v>
+      </c>
+      <c r="H1187">
+        <v>11</v>
+      </c>
+      <c r="I1187">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:9">
+      <c r="A1188" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1188">
+        <v>51</v>
+      </c>
+      <c r="D1188">
+        <v>34</v>
+      </c>
+      <c r="E1188">
+        <v>3</v>
+      </c>
+      <c r="F1188" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1188">
+        <v>40</v>
+      </c>
+      <c r="H1188">
+        <v>8</v>
+      </c>
+      <c r="I1188">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:9">
+      <c r="A1189" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1189">
+        <v>51</v>
+      </c>
+      <c r="D1189">
+        <v>34</v>
+      </c>
+      <c r="E1189">
+        <v>4</v>
+      </c>
+      <c r="F1189" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1189">
+        <v>31</v>
+      </c>
+      <c r="H1189">
+        <v>9</v>
+      </c>
+      <c r="I1189">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:9">
+      <c r="A1190" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1190">
+        <v>51</v>
+      </c>
+      <c r="D1190">
+        <v>36</v>
+      </c>
+      <c r="E1190">
+        <v>1</v>
+      </c>
+      <c r="F1190" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1190">
+        <v>9</v>
+      </c>
+      <c r="H1190">
+        <v>5</v>
+      </c>
+      <c r="I1190">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:9">
+      <c r="A1191" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1191">
+        <v>51</v>
+      </c>
+      <c r="D1191">
+        <v>36</v>
+      </c>
+      <c r="E1191">
+        <v>2</v>
+      </c>
+      <c r="F1191" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1191">
+        <v>43</v>
+      </c>
+      <c r="H1191">
+        <v>2</v>
+      </c>
+      <c r="I1191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:9">
+      <c r="A1192" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1192">
+        <v>51</v>
+      </c>
+      <c r="D1192">
+        <v>36</v>
+      </c>
+      <c r="E1192">
+        <v>3</v>
+      </c>
+      <c r="F1192" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1192">
+        <v>79</v>
+      </c>
+      <c r="H1192">
+        <v>11</v>
+      </c>
+      <c r="I1192">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:9">
+      <c r="A1193" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1193">
+        <v>51</v>
+      </c>
+      <c r="D1193">
+        <v>36</v>
+      </c>
+      <c r="E1193">
+        <v>4</v>
+      </c>
+      <c r="F1193" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1193">
+        <v>40</v>
+      </c>
+      <c r="H1193">
+        <v>1</v>
+      </c>
+      <c r="I1193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:9">
+      <c r="A1194" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1194">
+        <v>51</v>
+      </c>
+      <c r="D1194">
+        <v>41</v>
+      </c>
+      <c r="E1194">
+        <v>1</v>
+      </c>
+      <c r="F1194" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1194">
+        <v>11</v>
+      </c>
+      <c r="H1194">
+        <v>2</v>
+      </c>
+      <c r="I1194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:9">
+      <c r="A1195" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1195">
+        <v>51</v>
+      </c>
+      <c r="D1195">
+        <v>41</v>
+      </c>
+      <c r="E1195">
+        <v>2</v>
+      </c>
+      <c r="F1195" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1195">
+        <v>31</v>
+      </c>
+      <c r="H1195">
+        <v>2</v>
+      </c>
+      <c r="I1195">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:9">
+      <c r="A1196" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1196">
+        <v>51</v>
+      </c>
+      <c r="D1196">
+        <v>41</v>
+      </c>
+      <c r="E1196">
+        <v>3</v>
+      </c>
+      <c r="F1196" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1196">
+        <v>25</v>
+      </c>
+      <c r="H1196">
+        <v>1</v>
+      </c>
+      <c r="I1196">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:9">
+      <c r="A1197" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1197">
+        <v>51</v>
+      </c>
+      <c r="D1197">
+        <v>41</v>
+      </c>
+      <c r="E1197">
+        <v>4</v>
+      </c>
+      <c r="F1197" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1197">
+        <v>37</v>
+      </c>
+      <c r="H1197">
+        <v>11</v>
+      </c>
+      <c r="I1197">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:9">
+      <c r="A1198" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1198">
+        <v>51</v>
+      </c>
+      <c r="D1198">
+        <v>50</v>
+      </c>
+      <c r="E1198">
+        <v>1</v>
+      </c>
+      <c r="F1198" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1198">
+        <v>20</v>
+      </c>
+      <c r="H1198">
+        <v>3</v>
+      </c>
+      <c r="I1198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:9">
+      <c r="A1199" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1199">
+        <v>51</v>
+      </c>
+      <c r="D1199">
+        <v>50</v>
+      </c>
+      <c r="E1199">
+        <v>2</v>
+      </c>
+      <c r="F1199" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1199">
+        <v>27</v>
+      </c>
+      <c r="H1199">
+        <v>5</v>
+      </c>
+      <c r="I1199">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:9">
+      <c r="A1200" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1200">
+        <v>51</v>
+      </c>
+      <c r="D1200">
+        <v>50</v>
+      </c>
+      <c r="E1200">
+        <v>3</v>
+      </c>
+      <c r="F1200" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1200">
+        <v>53</v>
+      </c>
+      <c r="H1200">
+        <v>2.5</v>
+      </c>
+      <c r="I1200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:9">
+      <c r="A1201" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1201">
+        <v>51</v>
+      </c>
+      <c r="D1201">
+        <v>50</v>
+      </c>
+      <c r="E1201">
+        <v>4</v>
+      </c>
+      <c r="F1201" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1201">
+        <v>62</v>
+      </c>
+      <c r="H1201">
+        <v>20</v>
+      </c>
+      <c r="I1201">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28693,8 +32841,8 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <pane ySplit="1" topLeftCell="C4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28953,8 +33101,8 @@
   <dimension ref="A1:L121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L50" sqref="L50"/>
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F120" sqref="F120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31975,6 +36123,9 @@
       <c r="E104" t="s">
         <v>77</v>
       </c>
+      <c r="F104" t="s">
+        <v>85</v>
+      </c>
       <c r="G104">
         <v>400</v>
       </c>
@@ -31984,6 +36135,15 @@
       <c r="I104">
         <v>579</v>
       </c>
+      <c r="J104" s="1">
+        <v>44756</v>
+      </c>
+      <c r="K104" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="L104" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" t="s">
@@ -32027,6 +36187,9 @@
       <c r="E106" t="s">
         <v>80</v>
       </c>
+      <c r="F106" t="s">
+        <v>78</v>
+      </c>
       <c r="G106">
         <v>22</v>
       </c>
@@ -32036,6 +36199,15 @@
       <c r="I106">
         <v>848</v>
       </c>
+      <c r="J106" s="1">
+        <v>44756</v>
+      </c>
+      <c r="K106" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="L106" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="107" spans="1:12">
       <c r="A107" t="s">
@@ -32209,6 +36381,9 @@
       <c r="E113" t="s">
         <v>80</v>
       </c>
+      <c r="F113" t="s">
+        <v>84</v>
+      </c>
       <c r="G113">
         <v>215</v>
       </c>
@@ -32218,6 +36393,15 @@
       <c r="I113">
         <v>736</v>
       </c>
+      <c r="J113" s="1">
+        <v>44756</v>
+      </c>
+      <c r="K113" s="2">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="L113" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="114" spans="1:12">
       <c r="A114" t="s">
@@ -32351,6 +36535,9 @@
       <c r="E118" t="s">
         <v>80</v>
       </c>
+      <c r="F118" t="s">
+        <v>87</v>
+      </c>
       <c r="G118">
         <v>95</v>
       </c>
@@ -32359,6 +36546,15 @@
       </c>
       <c r="I118">
         <v>779</v>
+      </c>
+      <c r="J118" s="1">
+        <v>44756</v>
+      </c>
+      <c r="K118" s="2">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="L118" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -32459,10 +36655,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
         <v>88</v>
-      </c>
-      <c r="B1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:2">
